--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45282.36556712963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45147.57732638889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>45925.41516203704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45357.51055555556</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45785</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>44449</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44872</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45351</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45264</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45799.43880787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44512</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45264</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44690</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45785.66121527777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45120.36098379629</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45876.36284722222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45140</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>46004.39053240741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45566.50440972222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>45779.82824074074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44306.61693287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44320.53959490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44319.37167824074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44613.37336805555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44861.65420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44512</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44518.67818287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44679</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>44306</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44533.82865740741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44300</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44531</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44606.53486111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44349.41291666667</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44294.39475694444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44442.48902777778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44810</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44817.43634259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44309</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44313.61476851852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>44636.47163194444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44655</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44868.88850694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44858.36354166667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44809.40603009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44533.45332175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44533.47378472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44713.65042824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44497.82625</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44565.72142361111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44882.67047453704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44299.26466435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44552</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44491</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44469.38113425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44506</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44462</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44657</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44854</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44655.78991898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44448.32766203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44852.55070601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44295.87994212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44313.62149305556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44733.28400462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44656.369375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44532.45248842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44594.60802083334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44750</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44509.38251157408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44868.88914351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44391</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44663.21403935185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44237</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44882.73644675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44447</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44306</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44393</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44448</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44299</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44238</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44621.28681712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44606.52885416667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44403.546875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44524.80753472223</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>44593.3330787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>44466.43952546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44609.65611111111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>44593.32331018519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>44480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44624.30858796297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44393</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44609</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44464.50724537037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44391</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44439.38043981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44880.75383101852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44760.46152777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44945.73416666667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>45412.32587962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45561.27222222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>45348.3955324074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44460.32847222222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>44417.55487268518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>44772</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44477</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44959.53804398148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>45553.42306712963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45180</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>45603.57714120371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44881.7462962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45681.71317129629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45163.65268518519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44512</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45607.45567129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>44421.61880787037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>45552.35871527778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>45585.79972222223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>45162</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44831</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>45093.59811342593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>45357</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44959</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>45211.57574074074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>45700.75775462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45162</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45602.51206018519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44697.32734953704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44724.59394675926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>45603.53729166667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44894.45989583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44578.76435185185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44895.48936342593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>45344.83107638889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45124.37938657407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45258.26849537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45006.30979166667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45751.48168981481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45237.66819444444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>45314.40929398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>45675.66943287037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>45201.37782407407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>45247.43427083334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>45134.30709490741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>45558.78303240741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>45321</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>45566.49981481482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>45376.7833912037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>45645.4093287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>45363.45472222222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>45691.55537037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>45385</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45357.52773148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45265.27542824074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45265.31153935185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45606.8416087963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45181.56914351852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45540.50850694445</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44959.34690972222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45227.77196759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45162.60915509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45162.63479166666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45239.47715277778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45362.61717592592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45799.52417824074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45162</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45162.64134259259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45411.86090277778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44894</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45598.42902777778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45140</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45482.61148148148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>45798.52392361111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>45334</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45798.74115740741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45518.02157407408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44566.64864583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44929</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44824.34364583333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45399.69380787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45603.57903935185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>45666.33940972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45086</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>45084.5583449074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45621.85106481481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45180.59076388889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>45804.71013888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>44517.39930555555</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>45159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>45805.33483796296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45804.57174768519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44887.42815972222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45806.48881944444</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45806.49756944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45806.48766203703</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>45806.49197916667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45806.49351851852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45806.49508101852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>45806.49650462963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>45806.49885416667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44971</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45196.6505787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>45889.63668981481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45889.63934027778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45467.56039351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45797.45854166667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45889.63811342593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45683.84034722222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45683.84642361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44455</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45132.34326388889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45443.52001157407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45795.90994212963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44649.68643518518</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45099.45586805556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45473.68792824074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45889.63513888889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45281.87136574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45890.37572916667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45411.21011574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45813.60436342593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44896</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45889.89510416667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45784.26109953703</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45895.50241898148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45895.5594212963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45731.60994212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>45295</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45895</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45895.49549768519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45770.88768518518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>45895.46729166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45895.57215277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45895.58871527778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45814.74278935185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>45643.87871527778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45664.65659722222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45246.49246527778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45212.56842592593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45896.46121527778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45637</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45896.46381944444</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45636.94935185185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>45579.28255787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>45685.46277777778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45901.48925925926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45299</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45771.4696875</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45575.35196759259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45157</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45043.33277777778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45324.58987268519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44947.52337962963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45821.47336805556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44636</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44873.55699074074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44917.51491898148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>45606.84010416667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45825.31734953704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>45905.62414351852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>45904.56431712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>45227</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>45227.70106481481</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>45908.83663194445</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45909.49131944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>45412.33222222222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45909.48016203703</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45909.4825</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>45608.4834837963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45909.48768518519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>45824</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44663.5128125</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>45735.35841435185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>45826.57094907408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>45743.74188657408</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45847</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>45629.55349537037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>45740.32759259259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>45911.49384259259</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45742.36256944444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45726.86369212963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45231</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45663</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45913.39210648148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45913.36832175926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>44800.34206018518</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45727.47200231482</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45727.46181712963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45826.60518518519</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>45826.42863425926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45730.47032407407</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45743.58193287037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44503.71177083333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45743.55704861111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45743.56715277778</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45743.57358796296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45720.38792824074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45757.6740162037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45726.84574074074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44663</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45075</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45918.54395833334</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45918.37908564815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44606.89891203704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45918.41196759259</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45922.85560185185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45922.85699074074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45831.79909722223</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45833.47336805556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>45833.4774537037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45831.78528935185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44607.50556712963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>44607.50699074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45923.48826388889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>44558</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45924.64631944444</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45002.44510416667</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45833.45099537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45833.46016203704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45258.67806712963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45833.46310185185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45282.36902777778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45831.8115625</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>45194.44847222222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>45835.29754629629</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45925.54702546296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45925.54865740741</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>45833.8168287037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>45835.58464120371</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>45257</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45835</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>45833.8891087963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>45299</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>45281.83204861111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>45281.8468287037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>45281</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45925.87936342593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45926.33767361111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45594.78761574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>45835</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>45926.34030092593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45835.58650462963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45835.58302083334</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>45621.33743055556</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>45835.29376157407</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>45553.4275</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45553.42861111111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45239.47608796296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>45838.63467592592</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>45343</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45191</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45659.61055555556</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45341</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45316.87039351852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45838.47222222222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>45361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45932.49059027778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45933.6030787037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>45933.64770833333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>45933</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45838.63969907408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>45838.48921296297</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45838.62430555555</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>45838.64636574074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>45838.41554398148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>45838.49251157408</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>45735.36002314815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>45838.61827546296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>45838.47398148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23874,7 +23874,7 @@
         <v>45932.47908564815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45841</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45112.68491898148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>45593.44611111111</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>45934.39565972222</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>45934.45826388889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>45935.78211805555</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>45934.35324074074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>45934.45399305555</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>45934.52469907407</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45934.38615740741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45582.61121527778</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45937.44197916667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45937.49190972222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>45427.41087962963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>45324</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>45324.58748842592</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45716.64547453704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45937.49298611111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45841</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45841</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45939.40844907407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45675</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45937</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45937</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45939.4374537037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>45938.56295138889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>45938.56658564815</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>45845.65972222222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>45939.43545138889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>44638.75818287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44638.76068287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45845.66188657407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45938.66553240741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45939.33797453704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45939.36217592593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45898.45915509259</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45252</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45845.68589120371</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45354.59090277777</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45842</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45233.38435185186</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45842</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45085.65362268518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45846.31435185186</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45842</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45484.58876157407</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45343</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45784.50868055555</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45089</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>44636</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45947</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45947.42858796296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45187</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45244.41496527778</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45611.40252314815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45947</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45645.4187037037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45362.61083333333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45951.52045138889</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45700.75613425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45043</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45663</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45691.5816550926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45245.45607638889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45600.34857638889</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45244</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45856.47969907407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>45950.4659837963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>45856.48460648148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>45547.40618055555</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>45547.41038194444</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45547.41177083334</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45075</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44945.61759259259</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45951.51880787037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45861.62144675926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45862.48081018519</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45862.31365740741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45862.48412037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45862.33578703704</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45757.6719212963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45952.4318287037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45866</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45866.45084490741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45091</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45579.27511574074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45134.34258101852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45868.00584490741</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45954.54416666667</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29329,7 +29329,7 @@
         <v>45957.65851851852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45868.5902199074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45868.00769675926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45954.56371527778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>45954.71049768518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>45870.49383101852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45954.70637731482</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>45954.71233796296</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44911.55048611111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>44908.70862268518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45162.58184027778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45104</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30018,7 +30018,7 @@
         <v>45470.60431712963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45629.43756944445</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
         <v>45173.51109953703</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>45566.51096064815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45261.48627314815</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44768</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>45959.54478009259</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>45411.21890046296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>45411.22457175926</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44656.50299768519</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>45876.61038194445</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30650,7 +30650,7 @@
         <v>45960.35179398148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30707,7 +30707,7 @@
         <v>45877.34076388889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30764,7 +30764,7 @@
         <v>45960.54706018518</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30821,7 +30821,7 @@
         <v>45960.34425925926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>45959.62899305556</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30935,7 +30935,7 @@
         <v>45959.63047453704</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30992,7 +30992,7 @@
         <v>45960.33063657407</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31049,7 +31049,7 @@
         <v>45880.67349537037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>45880.67012731481</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44881.31358796296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>45244.42677083334</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31277,7 +31277,7 @@
         <v>45961.34212962963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>44762</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31391,7 +31391,7 @@
         <v>45960.30618055556</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>45162</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31505,7 +31505,7 @@
         <v>45704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45880</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31619,7 +31619,7 @@
         <v>45104</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45880.59420138889</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44514</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45966.55646990741</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45883.47704861111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45203</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45966.68065972222</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45237</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>45677.81309027778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         <v>45087</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>45258</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32246,7 +32246,7 @@
         <v>45966.65212962963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>45882.47818287037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45578.7541087963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45578.95694444444</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>45968.67233796296</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>45754.34409722222</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>45883.57228009259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32645,7 +32645,7 @@
         <v>45415.56604166667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32702,7 +32702,7 @@
         <v>45710.39645833334</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>45971.67520833333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32816,7 +32816,7 @@
         <v>45344.62459490741</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32873,7 +32873,7 @@
         <v>44678</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45258.68091435185</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45973.55982638889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45484.59119212963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45474.31899305555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45973.66148148148</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45086.51556712963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45974.63384259259</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>44944.47947916666</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45975.34393518518</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45974.64454861111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45974.65717592592</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45153.62331018518</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45974.66358796296</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>44267</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45084.49618055556</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>45979.40725694445</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45605.63666666667</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45605.73070601852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>45237</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>45006.30878472222</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44971.45362268519</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>45771</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>45985.39474537037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44781.323125</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>45727.47711805555</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>45626.6325</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>45626.77259259259</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>45666.35835648148</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>45236</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>45236</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>45194.44383101852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45140</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45140</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45607.38168981481</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>46029.5588425926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44809.38440972222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>46029.42180555555</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>45281.81950231481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>45636.95501157407</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>45189</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>45988.61628472222</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>45546.43177083333</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>45097</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45273</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44638.75981481482</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35577,7 +35577,7 @@
         <v>45686.83392361111</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>46030.36761574074</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>46030.63563657407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>45395.5187962963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44715.42887731481</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45992.37965277778</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45992.37409722222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>45992.38416666666</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36048,7 +36048,7 @@
         <v>44553</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>45163.65444444444</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>45560.54604166667</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>45992.64228009259</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>45992.58390046296</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>45992.58576388889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>45992.35840277778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36452,7 +36452,7 @@
         <v>45271</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36514,7 +36514,7 @@
         <v>45991.7721875</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36571,7 +36571,7 @@
         <v>45698.56950231481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>45994.44393518518</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36685,7 +36685,7 @@
         <v>45994.43108796296</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36742,7 +36742,7 @@
         <v>45533.72237268519</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36799,7 +36799,7 @@
         <v>45223</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36856,7 +36856,7 @@
         <v>45994.4335300926</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36913,7 +36913,7 @@
         <v>45140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36970,7 +36970,7 @@
         <v>45994.42851851852</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         <v>45994.45789351852</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37084,7 +37084,7 @@
         <v>45994.47895833333</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37141,7 +37141,7 @@
         <v>45603.6200925926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37203,7 +37203,7 @@
         <v>45994.42839120371</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37260,7 +37260,7 @@
         <v>45626.76655092592</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37317,7 +37317,7 @@
         <v>45161.45855324074</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37374,7 +37374,7 @@
         <v>46041.69230324074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37431,7 +37431,7 @@
         <v>45996</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>45999.63842592593</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>44626</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37602,7 +37602,7 @@
         <v>46001.71747685185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37659,7 +37659,7 @@
         <v>44914.29723379629</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37716,7 +37716,7 @@
         <v>46001.7137962963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37773,7 +37773,7 @@
         <v>46001.71782407408</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37830,7 +37830,7 @@
         <v>45398</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37887,7 +37887,7 @@
         <v>44971.45841435185</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37944,7 +37944,7 @@
         <v>44515.82825231482</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38001,7 +38001,7 @@
         <v>45199.41509259259</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>45071</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38115,7 +38115,7 @@
         <v>45427.40872685185</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38172,7 +38172,7 @@
         <v>45166.75233796296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38229,7 +38229,7 @@
         <v>44830.65798611111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38286,7 +38286,7 @@
         <v>45691.60722222222</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>45702.75126157407</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>44965.33583333333</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>45698.8477199074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>46048.6132175926</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>46048.30815972222</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>45356.47700231482</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>45606.7063425926</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>45601.76715277778</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>46049.30671296296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>45771.46571759259</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>45280.31978009259</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>45498.6093287037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39032,7 +39032,7 @@
         <v>45197</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>45316</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>45357.50591435185</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         <v>45009.47876157407</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39270,7 +39270,7 @@
         <v>45163.29509259259</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39327,7 +39327,7 @@
         <v>45007.57650462963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39384,7 +39384,7 @@
         <v>44530</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39441,7 +39441,7 @@
         <v>44333.52131944444</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39498,7 +39498,7 @@
         <v>44368</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>46009.37592592592</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>45407.35623842593</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>45558.37883101852</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>45471.74501157407</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>45775.73076388889</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44847.89084490741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>46055.38987268518</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39959,7 +39959,7 @@
         <v>45236</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40016,7 +40016,7 @@
         <v>44812</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>45505.37262731481</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44971</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40187,7 +40187,7 @@
         <v>45601.52255787037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40244,7 +40244,7 @@
         <v>44685.53243055556</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40301,7 +40301,7 @@
         <v>45691.60403935185</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40358,7 +40358,7 @@
         <v>45693.69725694445</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40415,7 +40415,7 @@
         <v>46055</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40472,7 +40472,7 @@
         <v>45757.63822916667</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>45994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44280</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40643,7 +40643,7 @@
         <v>45691.61997685185</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40700,7 +40700,7 @@
         <v>45538.52077546297</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45093</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45320</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45698.81115740741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40928,7 +40928,7 @@
         <v>45691.6365625</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40985,7 +40985,7 @@
         <v>45226.28296296296</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41042,7 +41042,7 @@
         <v>45715.63009259259</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45726.8350462963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45688.47086805556</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45699.48056712963</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45701.6150462963</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41337,7 +41337,7 @@
         <v>45706.4105324074</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>46057.46802083333</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45698</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45603</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45603</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>44771.35465277778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45215.43009259259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44817</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45043</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45070.6696875</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45671.35555555556</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>46048.5657175926</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45002.45552083333</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45484.4721875</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45231</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45225.7147800926</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45625.43532407407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45140.54517361111</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45120.42296296296</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45568.25478009259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45166</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45166</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45166</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>44334</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>44466.41472222222</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>44959.56810185185</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>44959</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>44882</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45072</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>44845</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45338</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45546.43820601852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45395</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45743.57135416667</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45676.88591435185</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45385.62458333333</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45626.62587962963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45626.75635416667</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45626.8178125</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45299</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45181</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45320.39425925926</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>45224.35410879629</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>45363.73256944444</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>45166</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>45225.86696759259</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>45190</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>44501</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>45384.48908564815</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45163.43252314815</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>45597.40795138889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>45565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>45225.84898148148</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44368,7 +44368,7 @@
         <v>45225.85842592592</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>45250</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>45775.56006944444</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>45104</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44596,7 +44596,7 @@
         <v>45008</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44653,7 +44653,7 @@
         <v>44763</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44710,7 +44710,7 @@
         <v>45328.72829861111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44767,7 +44767,7 @@
         <v>44333</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44824,7 +44824,7 @@
         <v>45757.63945601852</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44881,7 +44881,7 @@
         <v>45757.67545138889</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44938,7 +44938,7 @@
         <v>45757.67739583334</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44995,7 +44995,7 @@
         <v>44265</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45052,7 +45052,7 @@
         <v>45086</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45552.70372685185</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45552.70619212963</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>45139</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45280,7 +45280,7 @@
         <v>45408.24853009259</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44735.63233796296</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45379.38784722222</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         <v>45271</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45461.60770833334</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45573.55783564815</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45033.56310185185</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45161.46265046296</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45741,7 +45741,7 @@
         <v>44699</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45798,7 +45798,7 @@
         <v>45377.86966435185</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45855,7 +45855,7 @@
         <v>45377.88483796296</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45912,7 +45912,7 @@
         <v>45377.89707175926</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>45582.31900462963</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46026,7 +46026,7 @@
         <v>44971</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46083,7 +46083,7 @@
         <v>44858</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45363.45396990741</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         <v>45474.34578703704</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46254,7 +46254,7 @@
         <v>45590.39149305555</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46311,7 +46311,7 @@
         <v>45573.7084837963</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45227.69599537037</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46425,7 +46425,7 @@
         <v>45187</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>45257.83363425926</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>45691.60857638889</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46596,7 +46596,7 @@
         <v>45408.68671296296</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46653,7 +46653,7 @@
         <v>45704</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46710,7 +46710,7 @@
         <v>44945.61427083334</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46767,7 +46767,7 @@
         <v>45332</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46824,7 +46824,7 @@
         <v>45134.33009259259</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46881,7 +46881,7 @@
         <v>44593</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46938,7 +46938,7 @@
         <v>45242</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46995,7 +46995,7 @@
         <v>44810.48689814815</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47052,7 +47052,7 @@
         <v>45667.34559027778</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47109,7 +47109,7 @@
         <v>45427.6965625</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>45246.52076388889</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44333.51732638889</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>45098</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>45272.67701388889</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45481.60545138889</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>45086</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44565.71667824074</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         <v>45604.41407407408</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47622,7 +47622,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47679,7 +47679,7 @@
         <v>45769.70916666667</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>44642</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>45273.73775462963</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>45086</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>45059</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47964,7 +47964,7 @@
         <v>45059</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48021,7 +48021,7 @@
         <v>45168</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48078,7 +48078,7 @@
         <v>45168</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48135,7 +48135,7 @@
         <v>45038.59851851852</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48192,7 +48192,7 @@
         <v>44909.4491087963</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48249,7 +48249,7 @@
         <v>45750.98498842592</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         <v>45745.37030092593</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48363,7 +48363,7 @@
         <v>45225.85532407407</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48420,7 +48420,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48477,7 +48477,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48534,7 +48534,7 @@
         <v>45643.51184027778</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48591,7 +48591,7 @@
         <v>45041</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48648,7 +48648,7 @@
         <v>44497.61384259259</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48705,7 +48705,7 @@
         <v>45090.46358796296</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44455.8500462963</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44672.46112268518</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>45209.64098379629</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44613.67236111111</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>45544.72979166666</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>45158.5971412037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>45775.53862268518</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>45428.28443287037</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>45070.46034722222</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>45471.74104166667</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44658</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44488.83150462963</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>45015.38202546296</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44419</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49565,7 +49565,7 @@
         <v>45071</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49622,7 +49622,7 @@
         <v>45231</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49679,7 +49679,7 @@
         <v>45231</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49736,7 +49736,7 @@
         <v>45782.50159722222</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49793,7 +49793,7 @@
         <v>45782.39655092593</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49850,7 +49850,7 @@
         <v>45782.31944444445</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>45785.56844907408</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>45785.49209490741</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50021,7 +50021,7 @@
         <v>45412.33524305555</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50078,7 +50078,7 @@
         <v>45784.26943287037</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50135,7 +50135,7 @@
         <v>45784.56585648148</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50192,7 +50192,7 @@
         <v>45709.27710648148</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45791.5541087963</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         <v>45157</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50363,7 +50363,7 @@
         <v>45791.55678240741</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50420,7 +50420,7 @@
         <v>45790.4675462963</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50477,7 +50477,7 @@
         <v>45790.46292824074</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50534,7 +50534,7 @@
         <v>45797.4844212963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50596,7 +50596,7 @@
         <v>45797.49297453704</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>45797.58068287037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45282.36556712963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45147.57732638889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>45925.41516203704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45357.51055555556</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45785</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>44449</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44872</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45351</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45264</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45799.43880787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44512</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45264</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44690</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45785.66121527777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45120.36098379629</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45876.36284722222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45140</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>46004.39053240741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45566.50440972222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>45779.82824074074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44306.61693287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44320.53959490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44319.37167824074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44613.37336805555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44861.65420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44512</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44518.67818287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44679</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>44306</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44533.82865740741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44300</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44531</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44606.53486111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44349.41291666667</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44294.39475694444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44442.48902777778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44810</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44817.43634259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44309</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44313.61476851852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>44636.47163194444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44655</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44868.88850694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44858.36354166667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44809.40603009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44533.45332175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44533.47378472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44713.65042824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44497.82625</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44565.72142361111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44882.67047453704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44299.26466435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44552</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44491</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44469.38113425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44506</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44462</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44657</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44854</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44655.78991898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44448.32766203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44852.55070601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44295.87994212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44313.62149305556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44733.28400462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44656.369375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44532.45248842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44594.60802083334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44750</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44509.38251157408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44868.88914351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44391</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44663.21403935185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44237</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44882.73644675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44447</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44306</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44393</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44448</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44299</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44238</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44621.28681712963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44606.52885416667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44403.546875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44524.80753472223</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>44593.3330787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>44466.43952546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44609.65611111111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>44593.32331018519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>44480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44624.30858796297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44393</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44609</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44464.50724537037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44391</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44439.38043981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44880.75383101852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44760.46152777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44945.73416666667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>45412.32587962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45561.27222222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>45348.3955324074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44460.32847222222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>44417.55487268518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>44772</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44477</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44959.53804398148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>45553.42306712963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45180</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>45603.57714120371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44881.7462962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45681.71317129629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45163.65268518519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44512</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45607.45567129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>44421.61880787037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>45552.35871527778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>45585.79972222223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>45162</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44831</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>45093.59811342593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>45357</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44959</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>45211.57574074074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>45700.75775462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45162</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45602.51206018519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44697.32734953704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44724.59394675926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>45603.53729166667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44894.45989583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44578.76435185185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44895.48936342593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>45344.83107638889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45124.37938657407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45258.26849537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45006.30979166667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45751.48168981481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45237.66819444444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>45314.40929398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>45675.66943287037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>45201.37782407407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>45247.43427083334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>45134.30709490741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>45558.78303240741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>45321</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>45566.49981481482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>45376.7833912037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>45645.4093287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>45363.45472222222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>45691.55537037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>45385</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45357.52773148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45265.27542824074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45265.31153935185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45606.8416087963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45181.56914351852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45540.50850694445</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44959.34690972222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45227.77196759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45162.60915509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45162.63479166666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45239.47715277778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45362.61717592592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45799.52417824074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45162</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45162.64134259259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45411.86090277778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44894</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45598.42902777778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45140</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45482.61148148148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>45798.52392361111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>45334</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45798.74115740741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45518.02157407408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44566.64864583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44929</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44824.34364583333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45399.69380787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45603.57903935185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>45666.33940972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45086</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>45084.5583449074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45621.85106481481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45180.59076388889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>45804.71013888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>44517.39930555555</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>45159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>45805.33483796296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45804.57174768519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44887.42815972222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45806.48881944444</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45806.49756944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45806.48766203703</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>45806.49197916667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45806.49351851852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45806.49508101852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>45806.49650462963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>45806.49885416667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44971</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45196.6505787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>45889.63668981481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45889.63934027778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45467.56039351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45797.45854166667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45889.63811342593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45683.84034722222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45683.84642361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44455</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45132.34326388889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45443.52001157407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45795.90994212963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44649.68643518518</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45099.45586805556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45473.68792824074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45889.63513888889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45281.87136574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45890.37572916667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45411.21011574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45813.60436342593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44896</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45889.89510416667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45784.26109953703</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45895.50241898148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45895.5594212963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45731.60994212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>45295</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45895</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45895.49549768519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45770.88768518518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>45895.46729166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45895.57215277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45895.58871527778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45814.74278935185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>45643.87871527778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45664.65659722222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45246.49246527778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45212.56842592593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45896.46121527778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45637</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45896.46381944444</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45636.94935185185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>45579.28255787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>45685.46277777778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45901.48925925926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45299</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45771.4696875</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45575.35196759259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45157</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45043.33277777778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45324.58987268519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44947.52337962963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45821.47336805556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44636</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44873.55699074074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44917.51491898148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>45606.84010416667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45825.31734953704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>45905.62414351852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>45904.56431712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>45227</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>45227.70106481481</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>45908.83663194445</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45909.49131944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>45412.33222222222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45909.48016203703</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45909.4825</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>45608.4834837963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45909.48768518519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>45824</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44663.5128125</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>45735.35841435185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>45826.57094907408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>45743.74188657408</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45847</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>45629.55349537037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>45740.32759259259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>45911.49384259259</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45742.36256944444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45726.86369212963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45231</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45663</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45913.39210648148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45913.36832175926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>44800.34206018518</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45727.47200231482</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45727.46181712963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45826.60518518519</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>45826.42863425926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45730.47032407407</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45743.58193287037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44503.71177083333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45743.55704861111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45743.56715277778</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45743.57358796296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45720.38792824074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45757.6740162037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45726.84574074074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44663</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45075</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45918.54395833334</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45918.37908564815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44606.89891203704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45918.41196759259</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45922.85560185185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45922.85699074074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45831.79909722223</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45833.47336805556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>45833.4774537037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45831.78528935185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44607.50556712963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>44607.50699074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45923.48826388889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>44558</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45924.64631944444</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45002.44510416667</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45833.45099537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45833.46016203704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45258.67806712963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45833.46310185185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45282.36902777778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45831.8115625</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>45194.44847222222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>45835.29754629629</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45925.54702546296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45925.54865740741</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>45833.8168287037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>45835.58464120371</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>45257</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45835</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>45833.8891087963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>45299</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>45281.83204861111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>45281.8468287037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>45281</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45925.87936342593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45926.33767361111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45594.78761574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>45835</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>45926.34030092593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45835.58650462963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45835.58302083334</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>45621.33743055556</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>45835.29376157407</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>45553.4275</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45553.42861111111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45239.47608796296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>45838.63467592592</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>45343</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45191</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45659.61055555556</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45341</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45316.87039351852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45838.47222222222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>45361</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45932.49059027778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45933.6030787037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>45933.64770833333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>45933</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45838.63969907408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>45838.48921296297</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45838.62430555555</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>45838.64636574074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>45838.41554398148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>45838.49251157408</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>45735.36002314815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>45838.61827546296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>45838.47398148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23874,7 +23874,7 @@
         <v>45932.47908564815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45841</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45112.68491898148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>45593.44611111111</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>45934.39565972222</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>45934.45826388889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>45935.78211805555</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>45934.35324074074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>45934.45399305555</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>45934.52469907407</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45934.38615740741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45582.61121527778</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45937.44197916667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45937.49190972222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>45427.41087962963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>45324</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>45324.58748842592</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45716.64547453704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45937.49298611111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45841</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45841</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45939.40844907407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45675</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45937</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45937</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45939.4374537037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>45938.56295138889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>45938.56658564815</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>45845.65972222222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>45939.43545138889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>44638.75818287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44638.76068287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45845.66188657407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45938.66553240741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45939.33797453704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45939.36217592593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45898.45915509259</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45252</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45845.68589120371</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45354.59090277777</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45842</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45233.38435185186</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45842</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45085.65362268518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45846.31435185186</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45842</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45484.58876157407</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45343</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45784.50868055555</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45089</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>44636</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45947</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45947.42858796296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45187</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45244.41496527778</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45611.40252314815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45947</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45645.4187037037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45362.61083333333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45951.52045138889</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45700.75613425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45043</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45663</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45691.5816550926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45245.45607638889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45600.34857638889</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45244</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45856.47969907407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>45950.4659837963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>45856.48460648148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>45547.40618055555</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>45547.41038194444</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45547.41177083334</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45075</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44945.61759259259</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45951.51880787037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45035</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45861.62144675926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45862.48081018519</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45862.31365740741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45862.48412037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45862.33578703704</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45757.6719212963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45952.4318287037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45866</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45866.45084490741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45091</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45320</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45579.27511574074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45134.34258101852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45868.00584490741</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45954.54416666667</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29329,7 +29329,7 @@
         <v>45957.65851851852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45868.5902199074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45868.00769675926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45954.56371527778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>45954.71049768518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>45870.49383101852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45954.70637731482</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>45954.71233796296</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44911.55048611111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>44908.70862268518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45162.58184027778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45104</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30018,7 +30018,7 @@
         <v>45470.60431712963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45629.43756944445</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
         <v>45173.51109953703</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>45566.51096064815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45261.48627314815</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44768</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>45959.54478009259</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>45411.21890046296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>45411.22457175926</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44656.50299768519</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>45876.61038194445</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30650,7 +30650,7 @@
         <v>45960.35179398148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30707,7 +30707,7 @@
         <v>45877.34076388889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30764,7 +30764,7 @@
         <v>45960.54706018518</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30821,7 +30821,7 @@
         <v>45960.34425925926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>45959.62899305556</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30935,7 +30935,7 @@
         <v>45959.63047453704</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30992,7 +30992,7 @@
         <v>45960.33063657407</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31049,7 +31049,7 @@
         <v>45880.67349537037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>45880.67012731481</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44881.31358796296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>45244.42677083334</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31277,7 +31277,7 @@
         <v>45961.34212962963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>44762</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31391,7 +31391,7 @@
         <v>45960.30618055556</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         <v>45162</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31505,7 +31505,7 @@
         <v>45704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>45880</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31619,7 +31619,7 @@
         <v>45104</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45880.59420138889</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44514</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45966.55646990741</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45883.47704861111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45203</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45966.68065972222</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45237</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>45677.81309027778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         <v>45087</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>45258</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32246,7 +32246,7 @@
         <v>45966.65212962963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>45882.47818287037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45578.7541087963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45578.95694444444</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>45968.67233796296</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>45754.34409722222</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>45883.57228009259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32645,7 +32645,7 @@
         <v>45415.56604166667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32702,7 +32702,7 @@
         <v>45710.39645833334</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>45971.67520833333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32816,7 +32816,7 @@
         <v>45344.62459490741</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32873,7 +32873,7 @@
         <v>44678</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45258.68091435185</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45973.55982638889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45484.59119212963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45474.31899305555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45973.66148148148</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45086.51556712963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45974.63384259259</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>44944.47947916666</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45975.34393518518</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45974.64454861111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45974.65717592592</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45153.62331018518</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45974.66358796296</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>44267</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45084.49618055556</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>45979.40725694445</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45605.63666666667</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45605.73070601852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>45237</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>45006.30878472222</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34142,7 +34142,7 @@
         <v>44971.45362268519</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>45771</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>45985.39474537037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>44781.323125</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>45727.47711805555</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>45626.6325</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>45626.77259259259</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>45666.35835648148</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>45236</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>45236</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>45194.44383101852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45140</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45140</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45607.38168981481</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>46029.5588425926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>44809.38440972222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>46029.42180555555</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>45281.81950231481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>45636.95501157407</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>45189</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>45988.61628472222</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>45546.43177083333</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>45097</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45273</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44638.75981481482</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35577,7 +35577,7 @@
         <v>45686.83392361111</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>46030.36761574074</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>46030.63563657407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>45395.5187962963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44715.42887731481</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45992.37965277778</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45992.37409722222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>45992.38416666666</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36048,7 +36048,7 @@
         <v>44553</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>45163.65444444444</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>45560.54604166667</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>45992.64228009259</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>45992.58390046296</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>45992.58576388889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>45992.35840277778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36452,7 +36452,7 @@
         <v>45271</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36514,7 +36514,7 @@
         <v>45991.7721875</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36571,7 +36571,7 @@
         <v>45698.56950231481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>45994.44393518518</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36685,7 +36685,7 @@
         <v>45994.43108796296</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36742,7 +36742,7 @@
         <v>45533.72237268519</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36799,7 +36799,7 @@
         <v>45223</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36856,7 +36856,7 @@
         <v>45994.4335300926</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36913,7 +36913,7 @@
         <v>45140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36970,7 +36970,7 @@
         <v>45994.42851851852</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         <v>45994.45789351852</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37084,7 +37084,7 @@
         <v>45994.47895833333</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37141,7 +37141,7 @@
         <v>45603.6200925926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37203,7 +37203,7 @@
         <v>45994.42839120371</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37260,7 +37260,7 @@
         <v>45626.76655092592</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37317,7 +37317,7 @@
         <v>45161.45855324074</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37374,7 +37374,7 @@
         <v>46041.69230324074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37431,7 +37431,7 @@
         <v>45996</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>45999.63842592593</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>44626</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37602,7 +37602,7 @@
         <v>46001.71747685185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37659,7 +37659,7 @@
         <v>44914.29723379629</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37716,7 +37716,7 @@
         <v>46001.7137962963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37773,7 +37773,7 @@
         <v>46001.71782407408</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37830,7 +37830,7 @@
         <v>45398</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37887,7 +37887,7 @@
         <v>44971.45841435185</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37944,7 +37944,7 @@
         <v>44515.82825231482</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38001,7 +38001,7 @@
         <v>45199.41509259259</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>45071</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38115,7 +38115,7 @@
         <v>45427.40872685185</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38172,7 +38172,7 @@
         <v>45166.75233796296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38229,7 +38229,7 @@
         <v>44830.65798611111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38286,7 +38286,7 @@
         <v>45691.60722222222</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>45702.75126157407</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>44965.33583333333</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>45698.8477199074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>46048.6132175926</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>46048.30815972222</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>45356.47700231482</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>45606.7063425926</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>45601.76715277778</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>46049.30671296296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>45771.46571759259</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>45280.31978009259</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>45498.6093287037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39032,7 +39032,7 @@
         <v>45197</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>45316</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>45357.50591435185</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         <v>45009.47876157407</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39270,7 +39270,7 @@
         <v>45163.29509259259</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39327,7 +39327,7 @@
         <v>45007.57650462963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39384,7 +39384,7 @@
         <v>44530</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39441,7 +39441,7 @@
         <v>44333.52131944444</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39498,7 +39498,7 @@
         <v>44368</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>46009.37592592592</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>45407.35623842593</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>45558.37883101852</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>45471.74501157407</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>45775.73076388889</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44847.89084490741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>46055.38987268518</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39959,7 +39959,7 @@
         <v>45236</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40016,7 +40016,7 @@
         <v>44812</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>45505.37262731481</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44971</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40187,7 +40187,7 @@
         <v>45601.52255787037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40244,7 +40244,7 @@
         <v>44685.53243055556</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40301,7 +40301,7 @@
         <v>45691.60403935185</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40358,7 +40358,7 @@
         <v>45693.69725694445</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40415,7 +40415,7 @@
         <v>46055</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40472,7 +40472,7 @@
         <v>45757.63822916667</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>45994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40586,7 +40586,7 @@
         <v>44280</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40643,7 +40643,7 @@
         <v>45691.61997685185</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40700,7 +40700,7 @@
         <v>45538.52077546297</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45093</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45320</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45698.81115740741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40928,7 +40928,7 @@
         <v>45691.6365625</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40985,7 +40985,7 @@
         <v>45226.28296296296</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41042,7 +41042,7 @@
         <v>45715.63009259259</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45726.8350462963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45688.47086805556</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45699.48056712963</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45701.6150462963</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41337,7 +41337,7 @@
         <v>45706.4105324074</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>46057.46802083333</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45698</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45603</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45603</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>44771.35465277778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45215.43009259259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44817</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45043</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45070.6696875</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45671.35555555556</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>46048.5657175926</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45002.45552083333</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45484.4721875</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>45231</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>45225.7147800926</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45625.43532407407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>45140.54517361111</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45120.42296296296</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>45568.25478009259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45166</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>45166</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>45166</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>44334</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>44466.41472222222</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>44959.56810185185</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>44959</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>44882</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45072</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>44845</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45338</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45546.43820601852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45395</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45743.57135416667</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45676.88591435185</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45385.62458333333</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45626.62587962963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45626.75635416667</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45626.8178125</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45299</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45181</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45320.39425925926</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>45224.35410879629</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>45363.73256944444</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>45166</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>45225.86696759259</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>45190</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>44501</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>45384.48908564815</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45163.43252314815</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>45597.40795138889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>45565</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>45225.84898148148</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44368,7 +44368,7 @@
         <v>45225.85842592592</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>45250</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>45775.56006944444</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>45104</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44596,7 +44596,7 @@
         <v>45008</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44653,7 +44653,7 @@
         <v>44763</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44710,7 +44710,7 @@
         <v>45328.72829861111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44767,7 +44767,7 @@
         <v>44333</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44824,7 +44824,7 @@
         <v>45757.63945601852</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44881,7 +44881,7 @@
         <v>45757.67545138889</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44938,7 +44938,7 @@
         <v>45757.67739583334</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44995,7 +44995,7 @@
         <v>44265</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45052,7 +45052,7 @@
         <v>45086</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45552.70372685185</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45552.70619212963</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>45139</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45280,7 +45280,7 @@
         <v>45408.24853009259</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
         <v>44735.63233796296</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45379.38784722222</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         <v>45271</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45461.60770833334</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45573.55783564815</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45033.56310185185</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45161.46265046296</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45741,7 +45741,7 @@
         <v>44699</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45798,7 +45798,7 @@
         <v>45377.86966435185</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45855,7 +45855,7 @@
         <v>45377.88483796296</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45912,7 +45912,7 @@
         <v>45377.89707175926</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>45582.31900462963</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46026,7 +46026,7 @@
         <v>44971</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46083,7 +46083,7 @@
         <v>44858</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45363.45396990741</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         <v>45474.34578703704</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46254,7 +46254,7 @@
         <v>45590.39149305555</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46311,7 +46311,7 @@
         <v>45573.7084837963</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45227.69599537037</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46425,7 +46425,7 @@
         <v>45187</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>45257.83363425926</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>45691.60857638889</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46596,7 +46596,7 @@
         <v>45408.68671296296</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46653,7 +46653,7 @@
         <v>45704</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46710,7 +46710,7 @@
         <v>44945.61427083334</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46767,7 +46767,7 @@
         <v>45332</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46824,7 +46824,7 @@
         <v>45134.33009259259</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46881,7 +46881,7 @@
         <v>44593</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46938,7 +46938,7 @@
         <v>45242</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46995,7 +46995,7 @@
         <v>44810.48689814815</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47052,7 +47052,7 @@
         <v>45667.34559027778</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47109,7 +47109,7 @@
         <v>45427.6965625</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>45246.52076388889</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44333.51732638889</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>45098</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>45272.67701388889</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45481.60545138889</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>45086</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44565.71667824074</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         <v>45604.41407407408</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47622,7 +47622,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47679,7 +47679,7 @@
         <v>45769.70916666667</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>44642</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>45273.73775462963</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>45086</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>45059</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47964,7 +47964,7 @@
         <v>45059</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48021,7 +48021,7 @@
         <v>45168</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48078,7 +48078,7 @@
         <v>45168</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48135,7 +48135,7 @@
         <v>45038.59851851852</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48192,7 +48192,7 @@
         <v>44909.4491087963</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48249,7 +48249,7 @@
         <v>45750.98498842592</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         <v>45745.37030092593</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48363,7 +48363,7 @@
         <v>45225.85532407407</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48420,7 +48420,7 @@
         <v>44967</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48477,7 +48477,7 @@
         <v>44967</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48534,7 +48534,7 @@
         <v>45643.51184027778</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48591,7 +48591,7 @@
         <v>45041</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48648,7 +48648,7 @@
         <v>44497.61384259259</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48705,7 +48705,7 @@
         <v>45090.46358796296</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44455.8500462963</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44672.46112268518</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>45209.64098379629</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>44613.67236111111</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>45544.72979166666</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>45158.5971412037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>45775.53862268518</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>45428.28443287037</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>45070.46034722222</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>45471.74104166667</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>44658</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>44488.83150462963</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>45015.38202546296</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>44419</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49565,7 +49565,7 @@
         <v>45071</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49622,7 +49622,7 @@
         <v>45231</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49679,7 +49679,7 @@
         <v>45231</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49736,7 +49736,7 @@
         <v>45782.50159722222</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49793,7 +49793,7 @@
         <v>45782.39655092593</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49850,7 +49850,7 @@
         <v>45782.31944444445</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>45785.56844907408</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>45785.49209490741</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50021,7 +50021,7 @@
         <v>45412.33524305555</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50078,7 +50078,7 @@
         <v>45784.26943287037</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50135,7 +50135,7 @@
         <v>45784.56585648148</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50192,7 +50192,7 @@
         <v>45709.27710648148</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45791.5541087963</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         <v>45157</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50363,7 +50363,7 @@
         <v>45791.55678240741</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50420,7 +50420,7 @@
         <v>45790.4675462963</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50477,7 +50477,7 @@
         <v>45790.46292824074</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50534,7 +50534,7 @@
         <v>45797.4844212963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50596,7 +50596,7 @@
         <v>45797.49297453704</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>45797.58068287037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45282.36556712963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45147.57732638889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>45925.41516203704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45357.51055555556</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45785</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>44449</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44872</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45351</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44690</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45785.66121527777</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45876.36284722222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45120.36098379629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45140</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>46004.39053240741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45566.50440972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45783</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45779.82824074074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45799.43880787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>45264</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44306.61693287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44320.53959490741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44443</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44319.37167824074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44613.37336805555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44861.65420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44512</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44679</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44518.67818287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>44533.82865740741</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44300</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44306</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44349.41291666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44531</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44606.53486111111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44294.39475694444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44442.48902777778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44810</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44817.43634259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44309</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44636.47163194444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>44313.61476851852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44868.88850694444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44858.36354166667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44809.40603009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44533.45332175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44533.47378472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44713.65042824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44497.82625</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44565.72142361111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44882.67047453704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44299.26466435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44552</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44491</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44469.38113425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44506</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44657</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44854</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44655.78991898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44448.32766203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44852.55070601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44656.369375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44295.87994212963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44313.62149305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44733.28400462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44532.45248842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44594.60802083334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44750</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44509.38251157408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44868.88914351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44391</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44663.21403935185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44882.73644675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44306</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44447</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44393</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44371</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44448</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44299</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44621.28681712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44403.546875</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44606.52885416667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44524.80753472223</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44593.3330787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44466.43952546296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>44609.65611111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>44593.32331018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>44638</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>44624.30858796297</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>44393</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44464.50724537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44880.75383101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44439.38043981481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>45561.27222222222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44417.55487268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44772</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44760.46152777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44945.73416666667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45412.32587962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>44477</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>45348.3955324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>44460.32847222222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>45603.57714120371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44959.53804398148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>45553.42306712963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>45163.65268518519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44421.61880787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44881.7462962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>45552.35871527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45162</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44512</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45607.45567129629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45681.71317129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>45585.79972222223</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>44831</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>45093.59811342593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>45180</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>45357</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44959</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>45211.57574074074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>45700.75775462963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>45162</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>45602.51206018519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44895.48936342593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44724.59394675926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44697.32734953704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>45603.53729166667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44894.45989583333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44578.76435185185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45344.83107638889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>45258.26849537037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>45124.37938657407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45006.30979166667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>45751.48168981481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>45314.40929398148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45237.66819444444</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45070</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>45201.37782407407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45675.66943287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>45566.49981481482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45247.43427083334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45376.7833912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>45357.52773148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>45645.4093287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45606.8416087963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45363.45472222222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45691.55537037037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>45385</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44959.34690972222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>45265.27542824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45265.31153935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45181.56914351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45227.77196759259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45540.50850694445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45134.30709490741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45558.78303240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44916</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44916</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45162.60915509259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45162.63479166666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45162</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45239.47715277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45362.61717592592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45411.86090277778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45321</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45598.42902777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45482.61148148148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>45224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44566.64864583333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45518.02157407408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44929</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44824.34364583333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44517.39930555555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>45086</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45621.85106481481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45399.69380787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45603.57903935185</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45666.33940972222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45180.59076388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45196.6505787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45467.56039351852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44971</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45683.84034722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>45683.84642361111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>45281.87136574074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44455</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>45443.52001157407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44649.68643518518</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45411.21011574074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>45731.60994212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45212.56842592593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45770.88768518518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>44896</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45162.64134259259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>44894</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44970</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45664.65659722222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45246.49246527778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45084.5583449074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45663</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45159</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>45579.28255787037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45685.46277777778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45299</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44887.42815972222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45821.47336805556</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45575.35196759259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45157</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45825.31734953704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45043.33277777778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45889.63668981481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45889.63934027778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45797.45854166667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45889.63811342593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45824</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45795.90994212963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45324.58987268519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44947.52337962963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44636</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44873.55699074074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45889.63513888889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45826.57094907408</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44917.51491898148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45890.37572916667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45606.84010416667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45743.74188657408</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45740.32759259259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45726.86369212963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>45889.89510416667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45784.26109953703</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45727.47200231482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45895.50241898148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45727.46181712963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45895.5594212963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45826.60518518519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45227</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45227.70106481481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45826.42863425926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45730.47032407407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45743.58193287037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45895</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45743.55704861111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45743.56715277778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45895.49549768519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45743.57358796296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45720.38792824074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45895.57215277778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45895.58871527778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45726.84574074074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>45643.87871527778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45412.33222222222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>45259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45608.4834837963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44663.5128125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45831.79909722223</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45231</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45833.47336805556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45833.4774537037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45663</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45831.78528935185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>45896.46121527778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45637</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45833.45099537037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45833.46016203704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45896.46381944444</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44800.34206018518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45636.94935185185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45833.46310185185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>45831.8115625</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44503.71177083333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45835.29754629629</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45833.8168287037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45901.48925925926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45835.58464120371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45757.6740162037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45835</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45833.8891087963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45771.4696875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45835</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45835.58650462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44663</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>45835.58302083334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45835.29376157407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45838.63467592592</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45271</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44606.89891203704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45838.47222222222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>45838.63969907408</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45838.48921296297</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45838.62430555555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>45838.64636574074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>45838.41554398148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>45838.49251157408</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>45905.62414351852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>45904.56431712963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44607.50556712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44607.50699074074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>44558</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>45838.61827546296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45838.47398148148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>45841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>45908.83663194445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>45002.44510416667</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>45841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45258.67806712963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45909.49131944445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45282.36902777778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>45909.48016203703</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>45909.4825</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>45841</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>45909.48768518519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>45841</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>45194.44847222222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45735.35841435185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>45845.65972222222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>45845.66188657407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45847</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>45629.55349537037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>45257</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>45911.49384259259</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>45742.36256944444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>45845.68589120371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45299</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>45913.39210648148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21133,7 +21133,7 @@
         <v>45281.83204861111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45281.8468287037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21247,7 +21247,7 @@
         <v>45281</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         <v>45913.36832175926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45842</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>45842</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>45846.31435185186</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>45842</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>45594.78761574074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>45784.50868055555</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>45621.33743055556</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45553.4275</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>45553.42861111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45239.47608796296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45343</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45191</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45659.61055555556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45341</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>45316.87039351852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>45918.54395833334</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45361</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>45918.37908564815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>45663</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>45691.5816550926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45735.36002314815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>45918.41196759259</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45600.34857638889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>45856.47969907407</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22734,7 +22734,7 @@
         <v>45856.48460648148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>45922.85560185185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>45922.85699074074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>45112.68491898148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>45593.44611111111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>45861.62144675926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>45923.48826388889</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>45862.48081018519</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>45862.31365740741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45862.48412037037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45582.61121527778</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>45924.64631944444</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>45862.33578703704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>45427.41087962963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45324</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>45324.58748842592</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45716.64547453704</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44477</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45866</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45866.45084490741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45675</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45925.54702546296</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45925.54865740741</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45868.00584490741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45868.5902199074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45868.00769675926</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44638.75818287037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44638.76068287037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45870.49383101852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>45925.87936342593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45926.33767361111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45926.34030092593</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45252</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45470.60431712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45354.59090277777</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45233.38435185186</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45085</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45085.65362268518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45932.49059027778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45933.6030787037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45933.64770833333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45933</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45484.58876157407</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45343</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45876.61038194445</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44636</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45877.34076388889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45880.67349537037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45880.67012731481</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45244.41496527778</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45611.40252314815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45932.47908564815</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45880</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45645.4187037037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45362.61083333333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45880.59420138889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45934.39565972222</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45700.75613425926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45934.45826388889</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45935.78211805555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45883.47704861111</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45934.35324074074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45934.45399305555</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45934.52469907407</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45934.38615740741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45043</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45245.45607638889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45244</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45937.44197916667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45937.49190972222</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45882.47818287037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45547.40618055555</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45547.41038194444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>45547.41177083334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>45075</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45937.49298611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45883.57228009259</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>44945.61759259259</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45035</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>45939.40844907407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>45937</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>45937</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>45757.6719212963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>45939.4374537037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>45938.56295138889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>45938.56658564815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>45320</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45939.43545138889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>45579.27511574074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45938.66553240741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45134.34258101852</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45939.33797453704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45939.36217592593</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>45898.45915509259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44911.55048611111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>44908.70862268518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45162.58184027778</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45084.49618055556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>45629.43756944445</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45173.51109953703</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>45566.51096064815</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45947</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45947.42858796296</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45261.48627314815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45947</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44768</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45951.52045138889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45411.21890046296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45411.22457175926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44656.50299768519</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>45950.4659837963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45951.51880787037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44881.31358796296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45244.42677083334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44762</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45952.4318287037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45104</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45954.54416666667</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44514</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45957.65851851852</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45954.56371527778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45203</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45954.71049768518</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45237</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45677.81309027778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45087</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45954.70637731482</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>45954.71233796296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>45258</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45578.7541087963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>45578.95694444444</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>45754.34409722222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>45415.56604166667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>45710.39645833334</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>45344.62459490741</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44678</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>45258.68091435185</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>45484.59119212963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>45474.31899305555</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>45959.54478009259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45960.35179398148</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>45960.54706018518</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45086.51556712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>45960.34425925926</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         <v>44944.47947916666</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>45959.62899305556</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>45959.63047453704</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>45960.33063657407</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31567,7 +31567,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45961.34212962963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31681,7 +31681,7 @@
         <v>45153.62331018518</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31738,7 +31738,7 @@
         <v>45960.30618055556</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31795,7 +31795,7 @@
         <v>44267</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31857,7 +31857,7 @@
         <v>45966.55646990741</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31914,7 +31914,7 @@
         <v>45605.63666666667</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45605.73070601852</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45237</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45006.30878472222</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45966.68065972222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45966.65212962963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>44971.45362268519</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>45771</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45968.67233796296</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>44781.323125</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45727.47711805555</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45971.67520833333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32603,7 +32603,7 @@
         <v>45973.55982638889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>45626.6325</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>45626.77259259259</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>45666.35835648148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45236</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>45236</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>45194.44383101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>45140</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>45140</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>45973.66148148148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33173,7 +33173,7 @@
         <v>45974.63384259259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>45975.34393518518</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45974.64454861111</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>45607.38168981481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45974.65717592592</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33458,7 +33458,7 @@
         <v>45974.66358796296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33515,7 +33515,7 @@
         <v>44809.38440972222</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45979.40725694445</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>45281.81950231481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>45636.95501157407</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>45189</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>45546.43177083333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>45097</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>45273</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44638.75981481482</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>45985.39474537037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45686.83392361111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45395.5187962963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>44715.42887731481</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>44553</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34323,7 +34323,7 @@
         <v>45163.65444444444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34380,7 +34380,7 @@
         <v>45560.54604166667</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34437,7 +34437,7 @@
         <v>45271</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45698.56950231481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45988.61628472222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45533.72237268519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45223</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45992.37965277778</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45992.37409722222</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34851,7 +34851,7 @@
         <v>45140</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>45992.38416666666</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45992.64228009259</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45603.6200925926</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>45626.76655092592</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35146,7 +35146,7 @@
         <v>45992.58390046296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45992.58576388889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45992.35840277778</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45991.7721875</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45994.44393518518</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45994.43108796296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45161.45855324074</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45994.4335300926</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45994.42851851852</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45994.45789351852</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35721,7 +35721,7 @@
         <v>45994.47895833333</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>45994.42839120371</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44626</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>46041.69230324074</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35949,7 +35949,7 @@
         <v>44914.29723379629</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36006,7 +36006,7 @@
         <v>45996</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
         <v>45999.63842592593</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>45398</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36177,7 +36177,7 @@
         <v>46001.71747685185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>44971.45841435185</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>44515.82825231482</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>45199.41509259259</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>46001.7137962963</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36462,7 +36462,7 @@
         <v>45071</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>45427.40872685185</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>46001.71782407408</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>45166.75233796296</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44830.65798611111</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>45691.60722222222</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>45702.75126157407</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44965.33583333333</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36918,7 +36918,7 @@
         <v>45698.8477199074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36975,7 +36975,7 @@
         <v>45356.47700231482</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37032,7 +37032,7 @@
         <v>45606.7063425926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37089,7 +37089,7 @@
         <v>45601.76715277778</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37146,7 +37146,7 @@
         <v>45771.46571759259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37203,7 +37203,7 @@
         <v>45280.31978009259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37260,7 +37260,7 @@
         <v>45498.6093287037</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>46048.6132175926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>45197</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>45316</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>46048.30815972222</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>45357.50591435185</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37617,7 +37617,7 @@
         <v>45009.47876157407</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37674,7 +37674,7 @@
         <v>45163.29509259259</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37731,7 +37731,7 @@
         <v>45007.57650462963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37788,7 +37788,7 @@
         <v>44530</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         <v>44333.52131944444</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37902,7 +37902,7 @@
         <v>44368</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>46049.30671296296</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>45407.35623842593</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>45558.37883101852</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>45471.74501157407</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45775.73076388889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44847.89084490741</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45236</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>44812</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>46009.37592592592</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>45505.37262731481</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>44971</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>45601.52255787037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>44685.53243055556</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>46055.38987268518</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>45757.63822916667</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>44280</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38876,7 +38876,7 @@
         <v>45538.52077546297</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38933,7 +38933,7 @@
         <v>45093</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38990,7 +38990,7 @@
         <v>45320</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>45226.28296296296</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>44771.35465277778</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>45691.60403935185</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>45693.69725694445</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>46055</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>45994</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>45691.61997685185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>45215.43009259259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>45698.81115740741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44817</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>45691.6365625</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>45715.63009259259</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39736,7 +39736,7 @@
         <v>45726.8350462963</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39793,7 +39793,7 @@
         <v>45688.47086805556</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39850,7 +39850,7 @@
         <v>45699.48056712963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         <v>45701.6150462963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39969,7 +39969,7 @@
         <v>45070.6696875</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>45706.4105324074</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40083,7 +40083,7 @@
         <v>46057.46802083333</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40140,7 +40140,7 @@
         <v>45698</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40197,7 +40197,7 @@
         <v>45671.35555555556</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40254,7 +40254,7 @@
         <v>45603</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40311,7 +40311,7 @@
         <v>45603</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40368,7 +40368,7 @@
         <v>45002.45552083333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>45484.4721875</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>45231</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>45043</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>46048.5657175926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>45225.7147800926</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>45625.43532407407</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>45140.54517361111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>45120.42296296296</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>45568.25478009259</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40938,7 +40938,7 @@
         <v>46062.37981481481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45166</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41052,7 +41052,7 @@
         <v>45166</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45166</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>44334</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>44466.41472222222</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41285,7 +41285,7 @@
         <v>44959.56810185185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41342,7 +41342,7 @@
         <v>44959</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41399,7 +41399,7 @@
         <v>45895.46729166667</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45072</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>44845</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45338</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45546.43820601852</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         <v>45395</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41803,7 +41803,7 @@
         <v>46029.5588425926</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41860,7 +41860,7 @@
         <v>45743.57135416667</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41917,7 +41917,7 @@
         <v>45676.88591435185</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41974,7 +41974,7 @@
         <v>45385.62458333333</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42031,7 +42031,7 @@
         <v>45626.62587962963</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42088,7 +42088,7 @@
         <v>45626.75635416667</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42145,7 +42145,7 @@
         <v>45626.8178125</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42202,7 +42202,7 @@
         <v>45299</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42259,7 +42259,7 @@
         <v>45181</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42316,7 +42316,7 @@
         <v>45320.39425925926</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42373,7 +42373,7 @@
         <v>45224.35410879629</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>46029.42180555555</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42487,7 +42487,7 @@
         <v>45363.73256944444</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42544,7 +42544,7 @@
         <v>45166</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42601,7 +42601,7 @@
         <v>46071.91928240741</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>46071.9225</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>45225.86696759259</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45190</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44501</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>46030.36761574074</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45384.48908564815</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45163.43252314815</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45597.40795138889</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45565</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45225.84898148148</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45225.85842592592</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>46030.63563657407</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>46073.41722222222</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45250</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45775.56006944444</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45104</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45008</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44763</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45328.72829861111</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>44333</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>45757.63945601852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>45757.67545138889</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>45757.67739583334</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44265</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>45086</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>45552.70372685185</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45552.70619212963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>45139</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>45408.24853009259</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>44735.63233796296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44368,7 +44368,7 @@
         <v>45379.38784722222</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>45271</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>45461.60770833334</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45573.55783564815</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45033.56310185185</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45161.46265046296</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44715,7 +44715,7 @@
         <v>44699</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44772,7 +44772,7 @@
         <v>45377.86966435185</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44829,7 +44829,7 @@
         <v>45377.88483796296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44886,7 +44886,7 @@
         <v>45377.89707175926</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44943,7 +44943,7 @@
         <v>45582.31900462963</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45000,7 +45000,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45057,7 +45057,7 @@
         <v>44858</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45114,7 +45114,7 @@
         <v>45363.45396990741</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45474.34578703704</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45590.39149305555</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45573.7084837963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45227.69599537037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45187</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45257.83363425926</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45691.60857638889</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45408.68671296296</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45704</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>44945.61427083334</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45741,7 +45741,7 @@
         <v>45332</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45798,7 +45798,7 @@
         <v>45134.33009259259</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45855,7 +45855,7 @@
         <v>44593</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45912,7 +45912,7 @@
         <v>45242</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>44810.48689814815</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46026,7 +46026,7 @@
         <v>45667.34559027778</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46083,7 +46083,7 @@
         <v>45427.6965625</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45246.52076388889</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         <v>44333.51732638889</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46254,7 +46254,7 @@
         <v>45098</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46311,7 +46311,7 @@
         <v>45272.67701388889</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45481.60545138889</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46425,7 +46425,7 @@
         <v>45086</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>44565.71667824074</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>45604.41407407408</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46596,7 +46596,7 @@
         <v>45070</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46653,7 +46653,7 @@
         <v>45769.70916666667</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46710,7 +46710,7 @@
         <v>44642</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46767,7 +46767,7 @@
         <v>45273.73775462963</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46824,7 +46824,7 @@
         <v>45086</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46881,7 +46881,7 @@
         <v>45059</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46938,7 +46938,7 @@
         <v>45059</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46995,7 +46995,7 @@
         <v>45168</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47052,7 +47052,7 @@
         <v>45168</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47109,7 +47109,7 @@
         <v>45038.59851851852</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44909.4491087963</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>45750.98498842592</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>45745.37030092593</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>45225.85532407407</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44967</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44967</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>45643.51184027778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         <v>45041</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47622,7 +47622,7 @@
         <v>44497.61384259259</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47679,7 +47679,7 @@
         <v>45090.46358796296</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>44455.8500462963</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44672.46112268518</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>45209.64098379629</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44613.67236111111</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>45544.72979166666</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48026,7 +48026,7 @@
         <v>45158.5971412037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48083,7 +48083,7 @@
         <v>45775.53862268518</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48140,7 +48140,7 @@
         <v>45428.28443287037</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48197,7 +48197,7 @@
         <v>45070.46034722222</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48254,7 +48254,7 @@
         <v>45471.74104166667</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48311,7 +48311,7 @@
         <v>44658</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48368,7 +48368,7 @@
         <v>44488.83150462963</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48425,7 +48425,7 @@
         <v>45015.38202546296</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48482,7 +48482,7 @@
         <v>44419</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48539,7 +48539,7 @@
         <v>45071</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48596,7 +48596,7 @@
         <v>45231</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48653,7 +48653,7 @@
         <v>45231</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48710,7 +48710,7 @@
         <v>45782.50159722222</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48767,7 +48767,7 @@
         <v>45782.39655092593</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48824,7 +48824,7 @@
         <v>45782.31944444445</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48881,7 +48881,7 @@
         <v>45785.56844907408</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48938,7 +48938,7 @@
         <v>45785.49209490741</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>45412.33524305555</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>45784.26943287037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>45784.56585648148</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>45709.27710648148</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>45791.5541087963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>45157</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>45791.55678240741</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>45790.4675462963</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>45790.46292824074</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>45797.4844212963</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>45797.49297453704</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>45797.58068287037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>45799.52417824074</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>45798.52392361111</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>45798.74115740741</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>45804.71013888889</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49917,7 +49917,7 @@
         <v>45805.33483796296</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49974,7 +49974,7 @@
         <v>45804.57174768519</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50031,7 +50031,7 @@
         <v>45806.48881944444</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50088,7 +50088,7 @@
         <v>45806.49756944444</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50145,7 +50145,7 @@
         <v>45806.48766203703</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>45806.49197916667</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50259,7 +50259,7 @@
         <v>45806.49351851852</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50316,7 +50316,7 @@
         <v>45806.49508101852</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         <v>45806.49650462963</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50430,7 +50430,7 @@
         <v>45806.49885416667</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>45132.34326388889</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45099.45586805556</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         <v>45473.68792824074</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>45813.60436342593</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50715,7 +50715,7 @@
         <v>45295</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50772,7 +50772,7 @@
         <v>45814.74278935185</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45282.36556712963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45147.57732638889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>45925.41516203704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45357.51055555556</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45785</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>44449</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44872</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45351</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44690</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45785.66121527777</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45876.36284722222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45120.36098379629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45140</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>46004.39053240741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45566.50440972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45783</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45779.82824074074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45799.43880787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>45264</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44306.61693287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44320.53959490741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44443</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44319.37167824074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44613.37336805555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44861.65420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44512</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44679</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44518.67818287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>44533.82865740741</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44300</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44306</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44349.41291666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44531</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44606.53486111111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44294.39475694444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44442.48902777778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44810</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44817.43634259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44309</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44636.47163194444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>44313.61476851852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44868.88850694444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44858.36354166667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44809.40603009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44533.45332175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44533.47378472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44713.65042824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44497.82625</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44565.72142361111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44882.67047453704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44299.26466435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44552</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44491</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44469.38113425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44506</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44657</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44854</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44655.78991898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44448.32766203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44852.55070601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44656.369375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44295.87994212963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44313.62149305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44733.28400462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44532.45248842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44594.60802083334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44750</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44509.38251157408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44868.88914351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44391</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44663.21403935185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44882.73644675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44306</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44447</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44393</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44371</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44448</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44299</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44621.28681712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44403.546875</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44606.52885416667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44524.80753472223</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44593.3330787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44466.43952546296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>44609.65611111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>44593.32331018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>44638</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>44624.30858796297</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>44393</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44464.50724537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44880.75383101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44439.38043981481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>45561.27222222222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44417.55487268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44772</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44760.46152777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44945.73416666667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45412.32587962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>44477</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>45348.3955324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>44460.32847222222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>45603.57714120371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44959.53804398148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>45553.42306712963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>45163.65268518519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44421.61880787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44881.7462962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>45552.35871527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45162</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44512</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45607.45567129629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45681.71317129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>45585.79972222223</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>44831</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>45093.59811342593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>45180</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>45357</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44959</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>45211.57574074074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>45700.75775462963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>45162</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>45602.51206018519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44895.48936342593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44724.59394675926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44697.32734953704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>45603.53729166667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44894.45989583333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44578.76435185185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45344.83107638889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>45258.26849537037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>45124.37938657407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45006.30979166667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>45751.48168981481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>45314.40929398148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45237.66819444444</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45070</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>45201.37782407407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45675.66943287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>45566.49981481482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45247.43427083334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45376.7833912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>45357.52773148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>45645.4093287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45606.8416087963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45363.45472222222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45691.55537037037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>45385</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44959.34690972222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>45265.27542824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45265.31153935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45181.56914351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45227.77196759259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45540.50850694445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45134.30709490741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45558.78303240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44916</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44916</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45162.60915509259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45162.63479166666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45162</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45239.47715277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45362.61717592592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45411.86090277778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45321</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45598.42902777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45482.61148148148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>45224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44566.64864583333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45518.02157407408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44929</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44824.34364583333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44517.39930555555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>45086</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45621.85106481481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45399.69380787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45603.57903935185</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45666.33940972222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45180.59076388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45196.6505787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45467.56039351852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44971</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45683.84034722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>45683.84642361111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>45281.87136574074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44455</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>45443.52001157407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44649.68643518518</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45411.21011574074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>45731.60994212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45212.56842592593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45770.88768518518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>44896</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45162.64134259259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>44894</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44970</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45664.65659722222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45246.49246527778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45084.5583449074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45663</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45159</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>45579.28255787037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45685.46277777778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45299</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44887.42815972222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45821.47336805556</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45575.35196759259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45157</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45825.31734953704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45043.33277777778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45889.63668981481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45889.63934027778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45797.45854166667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45889.63811342593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45824</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45795.90994212963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45324.58987268519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44947.52337962963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44636</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44873.55699074074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45889.63513888889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45826.57094907408</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44917.51491898148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45890.37572916667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45606.84010416667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45743.74188657408</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45740.32759259259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45726.86369212963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>45889.89510416667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45784.26109953703</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45727.47200231482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45895.50241898148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45727.46181712963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45895.5594212963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45826.60518518519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45227</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45227.70106481481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45826.42863425926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45730.47032407407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45743.58193287037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45895</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45743.55704861111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45743.56715277778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45895.49549768519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45743.57358796296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45720.38792824074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45895.57215277778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45895.58871527778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45726.84574074074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>45643.87871527778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45412.33222222222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>45259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45608.4834837963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44663.5128125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45831.79909722223</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45231</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45833.47336805556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45833.4774537037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45663</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45831.78528935185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>45896.46121527778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45637</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45833.45099537037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45833.46016203704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45896.46381944444</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44800.34206018518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45636.94935185185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45833.46310185185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>45831.8115625</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44503.71177083333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45835.29754629629</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45833.8168287037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45901.48925925926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45835.58464120371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45757.6740162037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45835</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45833.8891087963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45771.4696875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45835</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45835.58650462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44663</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>45835.58302083334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45075</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45835.29376157407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45838.63467592592</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45271</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44606.89891203704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45838.47222222222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>45838.63969907408</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45838.48921296297</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45838.62430555555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>45838.64636574074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>45838.41554398148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>45838.49251157408</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>45905.62414351852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>45904.56431712963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44607.50556712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44607.50699074074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>44558</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>45838.61827546296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45838.47398148148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>45841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>45908.83663194445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>45002.44510416667</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>45841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45258.67806712963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45909.49131944445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45282.36902777778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>45909.48016203703</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>45909.4825</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>45841</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>45909.48768518519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>45841</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>45194.44847222222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45735.35841435185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>45845.65972222222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>45845.66188657407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45847</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>45629.55349537037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>45257</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>45911.49384259259</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>45742.36256944444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>45845.68589120371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45299</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>45913.39210648148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21133,7 +21133,7 @@
         <v>45281.83204861111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45281.8468287037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21247,7 +21247,7 @@
         <v>45281</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         <v>45913.36832175926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45842</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>45842</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>45846.31435185186</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>45842</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>45594.78761574074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>45784.50868055555</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>45621.33743055556</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45553.4275</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>45553.42861111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45239.47608796296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45343</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45191</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45659.61055555556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45341</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>45316.87039351852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>45918.54395833334</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45361</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>45918.37908564815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>45663</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>45691.5816550926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45735.36002314815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>45918.41196759259</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45600.34857638889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>45856.47969907407</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22734,7 +22734,7 @@
         <v>45856.48460648148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>45922.85560185185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>45922.85699074074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>45112.68491898148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>45593.44611111111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>45861.62144675926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>45923.48826388889</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>45862.48081018519</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>45862.31365740741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45862.48412037037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45582.61121527778</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>45924.64631944444</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>45862.33578703704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>45427.41087962963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45324</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>45324.58748842592</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45716.64547453704</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>44477</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45866</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45866.45084490741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45675</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45925.54702546296</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45925.54865740741</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45868.00584490741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45868.5902199074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45868.00769675926</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44638.75818287037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44638.76068287037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45870.49383101852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>45925.87936342593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45926.33767361111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45926.34030092593</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45252</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45470.60431712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45354.59090277777</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45233.38435185186</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45085</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45085.65362268518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45932.49059027778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45933.6030787037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45933.64770833333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45933</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45484.58876157407</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45343</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45089</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45876.61038194445</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44636</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45877.34076388889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45880.67349537037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45880.67012731481</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45244.41496527778</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45611.40252314815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45932.47908564815</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45880</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45645.4187037037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45362.61083333333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45880.59420138889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45934.39565972222</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45700.75613425926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45934.45826388889</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45935.78211805555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45883.47704861111</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45934.35324074074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45934.45399305555</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45934.52469907407</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45934.38615740741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45043</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45245.45607638889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45244</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45937.44197916667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45937.49190972222</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45882.47818287037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45547.40618055555</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45547.41038194444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>45547.41177083334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>45075</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45937.49298611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45883.57228009259</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>44945.61759259259</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45035</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>45939.40844907407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>45937</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>45937</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>45757.6719212963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>45939.4374537037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>45938.56295138889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>45938.56658564815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>45320</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45939.43545138889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>45579.27511574074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45938.66553240741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45134.34258101852</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45939.33797453704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45939.36217592593</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>45898.45915509259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44911.55048611111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>44908.70862268518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45162.58184027778</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45084.49618055556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>45629.43756944445</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45173.51109953703</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>45566.51096064815</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45947</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45947.42858796296</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45261.48627314815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45947</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>44768</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45951.52045138889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45411.21890046296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45411.22457175926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44656.50299768519</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>45950.4659837963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45951.51880787037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44881.31358796296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45244.42677083334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44762</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45952.4318287037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45104</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45954.54416666667</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44514</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45957.65851851852</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45954.56371527778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45203</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45954.71049768518</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45237</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45677.81309027778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45087</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45954.70637731482</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>45954.71233796296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>45258</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45578.7541087963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>45578.95694444444</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>45754.34409722222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>45415.56604166667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>45710.39645833334</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>45344.62459490741</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44678</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>45258.68091435185</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>45484.59119212963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>45474.31899305555</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>45959.54478009259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45960.35179398148</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>45960.54706018518</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45086.51556712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>45960.34425925926</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         <v>44944.47947916666</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>45959.62899305556</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>45959.63047453704</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>45960.33063657407</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31567,7 +31567,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
         <v>45961.34212962963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31681,7 +31681,7 @@
         <v>45153.62331018518</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31738,7 +31738,7 @@
         <v>45960.30618055556</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31795,7 +31795,7 @@
         <v>44267</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31857,7 +31857,7 @@
         <v>45966.55646990741</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31914,7 +31914,7 @@
         <v>45605.63666666667</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45605.73070601852</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45237</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45006.30878472222</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45966.68065972222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45966.65212962963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>44971.45362268519</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>45771</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45968.67233796296</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>44781.323125</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45727.47711805555</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45971.67520833333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32603,7 +32603,7 @@
         <v>45973.55982638889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>45626.6325</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>45626.77259259259</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>45666.35835648148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45236</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>45236</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>45194.44383101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>45140</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>45140</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>45973.66148148148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33173,7 +33173,7 @@
         <v>45974.63384259259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>45975.34393518518</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45974.64454861111</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>45607.38168981481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45974.65717592592</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33458,7 +33458,7 @@
         <v>45974.66358796296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33515,7 +33515,7 @@
         <v>44809.38440972222</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45979.40725694445</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>45281.81950231481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>45636.95501157407</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>45189</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>45546.43177083333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>45097</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>45273</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44638.75981481482</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>45985.39474537037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45686.83392361111</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45395.5187962963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>44715.42887731481</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>44553</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34323,7 +34323,7 @@
         <v>45163.65444444444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34380,7 +34380,7 @@
         <v>45560.54604166667</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34437,7 +34437,7 @@
         <v>45271</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45698.56950231481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45988.61628472222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45533.72237268519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45223</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45992.37965277778</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45992.37409722222</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34851,7 +34851,7 @@
         <v>45140</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>45992.38416666666</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45992.64228009259</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45603.6200925926</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>45626.76655092592</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35146,7 +35146,7 @@
         <v>45992.58390046296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35203,7 +35203,7 @@
         <v>45992.58576388889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45992.35840277778</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45991.7721875</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45994.44393518518</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>45994.43108796296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45161.45855324074</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>45994.4335300926</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45994.42851851852</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45994.45789351852</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35721,7 +35721,7 @@
         <v>45994.47895833333</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>45994.42839120371</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44626</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>46041.69230324074</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35949,7 +35949,7 @@
         <v>44914.29723379629</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36006,7 +36006,7 @@
         <v>45996</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
         <v>45999.63842592593</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>45398</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36177,7 +36177,7 @@
         <v>46001.71747685185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>44971.45841435185</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>44515.82825231482</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>45199.41509259259</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>46001.7137962963</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36462,7 +36462,7 @@
         <v>45071</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>45427.40872685185</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>46001.71782407408</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>45166.75233796296</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44830.65798611111</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>45691.60722222222</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>45702.75126157407</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44965.33583333333</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36918,7 +36918,7 @@
         <v>45698.8477199074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36975,7 +36975,7 @@
         <v>45356.47700231482</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37032,7 +37032,7 @@
         <v>45606.7063425926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37089,7 +37089,7 @@
         <v>45601.76715277778</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37146,7 +37146,7 @@
         <v>45771.46571759259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37203,7 +37203,7 @@
         <v>45280.31978009259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37260,7 +37260,7 @@
         <v>45498.6093287037</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>46048.6132175926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>45197</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>45316</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>46048.30815972222</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>45357.50591435185</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37617,7 +37617,7 @@
         <v>45009.47876157407</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37674,7 +37674,7 @@
         <v>45163.29509259259</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37731,7 +37731,7 @@
         <v>45007.57650462963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37788,7 +37788,7 @@
         <v>44530</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         <v>44333.52131944444</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37902,7 +37902,7 @@
         <v>44368</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>46049.30671296296</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>45407.35623842593</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>45558.37883101852</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>45471.74501157407</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45775.73076388889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44847.89084490741</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45236</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>44812</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>46009.37592592592</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>45505.37262731481</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>44971</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>45601.52255787037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>44685.53243055556</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>46055.38987268518</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>45757.63822916667</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>44280</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38876,7 +38876,7 @@
         <v>45538.52077546297</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38933,7 +38933,7 @@
         <v>45093</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38990,7 +38990,7 @@
         <v>45320</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>45226.28296296296</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>44771.35465277778</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>45691.60403935185</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>45693.69725694445</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>46055</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>45994</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>45691.61997685185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>45215.43009259259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>45698.81115740741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44817</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>45691.6365625</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>45715.63009259259</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39736,7 +39736,7 @@
         <v>45726.8350462963</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39793,7 +39793,7 @@
         <v>45688.47086805556</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39850,7 +39850,7 @@
         <v>45699.48056712963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         <v>45701.6150462963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39969,7 +39969,7 @@
         <v>45070.6696875</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>45706.4105324074</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40083,7 +40083,7 @@
         <v>46057.46802083333</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40140,7 +40140,7 @@
         <v>45698</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40197,7 +40197,7 @@
         <v>45671.35555555556</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40254,7 +40254,7 @@
         <v>45603</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40311,7 +40311,7 @@
         <v>45603</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40368,7 +40368,7 @@
         <v>45002.45552083333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>45484.4721875</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>45231</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>45043</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>46048.5657175926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>45225.7147800926</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>45625.43532407407</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>45140.54517361111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>45120.42296296296</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>45568.25478009259</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40938,7 +40938,7 @@
         <v>46062.37981481481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45166</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41052,7 +41052,7 @@
         <v>45166</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45166</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>44334</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>44466.41472222222</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41285,7 +41285,7 @@
         <v>44959.56810185185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41342,7 +41342,7 @@
         <v>44959</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41399,7 +41399,7 @@
         <v>45895.46729166667</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45072</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>44845</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45338</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45546.43820601852</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         <v>45395</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41803,7 +41803,7 @@
         <v>46029.5588425926</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41860,7 +41860,7 @@
         <v>45743.57135416667</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41917,7 +41917,7 @@
         <v>45676.88591435185</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41974,7 +41974,7 @@
         <v>45385.62458333333</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42031,7 +42031,7 @@
         <v>45626.62587962963</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42088,7 +42088,7 @@
         <v>45626.75635416667</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42145,7 +42145,7 @@
         <v>45626.8178125</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42202,7 +42202,7 @@
         <v>45299</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42259,7 +42259,7 @@
         <v>45181</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42316,7 +42316,7 @@
         <v>45320.39425925926</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42373,7 +42373,7 @@
         <v>45224.35410879629</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>46029.42180555555</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42487,7 +42487,7 @@
         <v>45363.73256944444</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42544,7 +42544,7 @@
         <v>45166</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42601,7 +42601,7 @@
         <v>46071.91928240741</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>46071.9225</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>45225.86696759259</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45190</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44501</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>46030.36761574074</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45384.48908564815</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45163.43252314815</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45597.40795138889</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45565</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45225.84898148148</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45225.85842592592</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>46030.63563657407</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>46073.41722222222</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45250</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45775.56006944444</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45104</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45008</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44763</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45328.72829861111</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>44333</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>45757.63945601852</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43855,7 +43855,7 @@
         <v>45757.67545138889</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43912,7 +43912,7 @@
         <v>45757.67739583334</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43969,7 +43969,7 @@
         <v>44265</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44026,7 +44026,7 @@
         <v>45086</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>45552.70372685185</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45552.70619212963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>45139</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>45408.24853009259</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>44735.63233796296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44368,7 +44368,7 @@
         <v>45379.38784722222</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>45271</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44487,7 +44487,7 @@
         <v>45461.60770833334</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45573.55783564815</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45033.56310185185</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45161.46265046296</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44715,7 +44715,7 @@
         <v>44699</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44772,7 +44772,7 @@
         <v>45377.86966435185</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44829,7 +44829,7 @@
         <v>45377.88483796296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44886,7 +44886,7 @@
         <v>45377.89707175926</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44943,7 +44943,7 @@
         <v>45582.31900462963</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45000,7 +45000,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45057,7 +45057,7 @@
         <v>44858</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45114,7 +45114,7 @@
         <v>45363.45396990741</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45474.34578703704</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45590.39149305555</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45573.7084837963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45227.69599537037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45187</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45257.83363425926</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45691.60857638889</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45408.68671296296</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45704</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>44945.61427083334</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45741,7 +45741,7 @@
         <v>45332</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45798,7 +45798,7 @@
         <v>45134.33009259259</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45855,7 +45855,7 @@
         <v>44593</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45912,7 +45912,7 @@
         <v>45242</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>44810.48689814815</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46026,7 +46026,7 @@
         <v>45667.34559027778</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46083,7 +46083,7 @@
         <v>45427.6965625</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46140,7 +46140,7 @@
         <v>45246.52076388889</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         <v>44333.51732638889</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46254,7 +46254,7 @@
         <v>45098</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46311,7 +46311,7 @@
         <v>45272.67701388889</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45481.60545138889</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46425,7 +46425,7 @@
         <v>45086</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>44565.71667824074</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>45604.41407407408</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46596,7 +46596,7 @@
         <v>45070</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46653,7 +46653,7 @@
         <v>45769.70916666667</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46710,7 +46710,7 @@
         <v>44642</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46767,7 +46767,7 @@
         <v>45273.73775462963</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46824,7 +46824,7 @@
         <v>45086</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46881,7 +46881,7 @@
         <v>45059</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46938,7 +46938,7 @@
         <v>45059</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46995,7 +46995,7 @@
         <v>45168</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47052,7 +47052,7 @@
         <v>45168</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47109,7 +47109,7 @@
         <v>45038.59851851852</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44909.4491087963</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>45750.98498842592</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>45745.37030092593</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>45225.85532407407</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44967</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44967</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>45643.51184027778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         <v>45041</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47622,7 +47622,7 @@
         <v>44497.61384259259</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47679,7 +47679,7 @@
         <v>45090.46358796296</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>44455.8500462963</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>44672.46112268518</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>45209.64098379629</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>44613.67236111111</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>45544.72979166666</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48026,7 +48026,7 @@
         <v>45158.5971412037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48083,7 +48083,7 @@
         <v>45775.53862268518</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48140,7 +48140,7 @@
         <v>45428.28443287037</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48197,7 +48197,7 @@
         <v>45070.46034722222</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48254,7 +48254,7 @@
         <v>45471.74104166667</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48311,7 +48311,7 @@
         <v>44658</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48368,7 +48368,7 @@
         <v>44488.83150462963</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48425,7 +48425,7 @@
         <v>45015.38202546296</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48482,7 +48482,7 @@
         <v>44419</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48539,7 +48539,7 @@
         <v>45071</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48596,7 +48596,7 @@
         <v>45231</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48653,7 +48653,7 @@
         <v>45231</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48710,7 +48710,7 @@
         <v>45782.50159722222</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48767,7 +48767,7 @@
         <v>45782.39655092593</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48824,7 +48824,7 @@
         <v>45782.31944444445</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48881,7 +48881,7 @@
         <v>45785.56844907408</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48938,7 +48938,7 @@
         <v>45785.49209490741</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>45412.33524305555</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>45784.26943287037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49109,7 +49109,7 @@
         <v>45784.56585648148</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49166,7 +49166,7 @@
         <v>45709.27710648148</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49223,7 +49223,7 @@
         <v>45791.5541087963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49280,7 +49280,7 @@
         <v>45157</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49337,7 +49337,7 @@
         <v>45791.55678240741</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>45790.4675462963</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>45790.46292824074</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>45797.4844212963</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>45797.49297453704</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>45797.58068287037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>45799.52417824074</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>45798.52392361111</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>45798.74115740741</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>45804.71013888889</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49917,7 +49917,7 @@
         <v>45805.33483796296</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49974,7 +49974,7 @@
         <v>45804.57174768519</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50031,7 +50031,7 @@
         <v>45806.48881944444</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50088,7 +50088,7 @@
         <v>45806.49756944444</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50145,7 +50145,7 @@
         <v>45806.48766203703</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>45806.49197916667</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50259,7 +50259,7 @@
         <v>45806.49351851852</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50316,7 +50316,7 @@
         <v>45806.49508101852</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         <v>45806.49650462963</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50430,7 +50430,7 @@
         <v>45806.49885416667</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>45132.34326388889</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45099.45586805556</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         <v>45473.68792824074</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>45813.60436342593</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50715,7 +50715,7 @@
         <v>45295</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50772,7 +50772,7 @@
         <v>45814.74278935185</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45282.36556712963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45147.57732638889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>45925.41516203704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45357.51055555556</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45785</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>44449</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44872</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44879</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45120.36098379629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45264</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45785.66121527777</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45876.36284722222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45264</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>46004.39053240741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>45140</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44690</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45566.50440972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>44512</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>45779.82824074074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>45799.43880787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44306.61693287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44443</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44320.53959490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44319.37167824074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44613.37336805555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44861.65420138889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44512</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44679</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44518.67818287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44512</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>44533.82865740741</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44300</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44306</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44349.41291666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44606.53486111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44531</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44294.39475694444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44442.48902777778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44810</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44817.43634259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44309</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44636.47163194444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>44313.61476851852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44655</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44868.88850694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44858.36354166667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44809.40603009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44823</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44533.45332175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44533.47378472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44713.65042824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44497.82625</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44565.72142361111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44882.67047453704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44299.26466435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44552</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44491</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44469.38113425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44506</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44657</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44854</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44655.78991898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44448.32766203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44852.55070601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44295.87994212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44656.369375</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44313.62149305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44733.28400462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44532.45248842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44594.60802083334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44750</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44509.38251157408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44868.88914351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44391</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44663.21403935185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44882.73644675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44306</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44447</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44393</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44448</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44299</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44621.28681712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44403.546875</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44606.52885416667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44524.80753472223</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44593.3330787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44466.43952546296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>44609.65611111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>44593.32331018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>44638</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>44624.30858796297</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>44393</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44464.50724537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44439.38043981481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44880.75383101852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>45626.6325</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>45626.77259259259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44781.323125</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45743.57135416667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>45246.52076388889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>44419</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>45362.61717592592</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45552.70372685185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45552.70619212963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45471.74501157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>45505.37262731481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44881.31358796296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44771.35465277778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>45407.35623842593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>45698.56950231481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45085</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45085.65362268518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45546.43820601852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45357.52773148148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>44512</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>44817</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45093.59811342593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45398</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45250</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>45344.62459490741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45428.28443287037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>45474.34578703704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45443.52001157407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45215.43009259259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44809.38440972222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44916</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44916</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45561.27222222222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>45086.51556712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45467.56039351852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>45320</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>45593.44611111111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>45258</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>45334</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>45484.4721875</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>45484.58876157407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45281.87136574074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44895.48936342593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>45273.73775462963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>45341</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44914.29723379629</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45605.63666666667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>45605.73070601852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44873.55699074074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>45498.6093287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45626.76655092592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44656.50299768519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>45804.71013888889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>45097</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44909.4491087963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45362.61083333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44887.42815972222</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>45883.47704861111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>45804.57174768519</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44894</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>45806.48881944444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>45806.49756944444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45354.59090277777</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45806.49885416667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>45806.48766203703</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45805.33483796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45806.49197916667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45806.49351851852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45162.64134259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>45553.4275</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>45553.42861111111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>45084.5583449074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>45806.49508101852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45806.49650462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45084.49618055556</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45099.45586805556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44638.75981481482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45343</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>45606.7063425926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44626</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>45473.68792824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>45348.3955324074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45663</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>45132.34326388889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44881.7462962963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>45795.90994212963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>45007.57650462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44971</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>44501</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44672.46112268518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45797.45854166667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45889.89510416667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45889.63811342593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45784.26109953703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45813.60436342593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45566.49981481482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45814.74278935185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>45889.63668981481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45889.63934027778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>45889.63513888889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>45041</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>45890.37572916667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>45643.87871527778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45212.56842592593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45295</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>45573.7084837963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45385.62458333333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>45821.47336805556</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>45324</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45324.58748842592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45343</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45895.49549768519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45547.40618055555</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45547.41038194444</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45547.41177083334</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45896.46381944444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45826.60518518519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>45895.50241898148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>45895.5594212963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>45895.57215277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45895.58871527778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>45826.57094907408</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>45895</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45896.46121527778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44945.61759259259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45825.31734953704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44663</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45637</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44724.59394675926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45826.42863425926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45244.41496527778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45720.38792824074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45743.55704861111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45743.56715277778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45743.57358796296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45743.58193287037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45726.86369212963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45730.47032407407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>45743.74188657408</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>45740.32759259259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>45727.46181712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>45901.48925925926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>45726.84574074074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>45727.47200231482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>45636.94935185185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>45771.4696875</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>45225.7147800926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>45904.56431712963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>45070.46034722222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44455.8500462963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45833.47336805556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45833.4774537037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44959.56810185185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45833.45099537037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>45833.8891087963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>45833.46310185185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45831.79909722223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>45833.46016203704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>45831.78528935185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>45905.62414351852</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45831.8115625</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45833.8168287037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45838.41554398148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45835.29754629629</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45838.47222222222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45835.29376157407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45835.58302083334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45427.41087962963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45835.58464120371</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45835.58650462963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>45838.48921296297</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45553.42306712963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45838.61827546296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45835</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45838.49251157408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>45838.47398148148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45835</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44735.63233796296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45271</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>45070.6696875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44911.55048611111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>45411.86090277778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>45838.64636574074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>45838.63467592592</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45838.62430555555</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45908.83663194445</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44908.70862268518</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45225.84898148148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>45225.85842592592</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>45226.28296296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45838.63969907408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45579.28255787037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45299</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44965.33583333333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45841</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>45314.40929398148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>45909.48768518519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45909.49131944445</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44971</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45909.48016203703</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>45909.4825</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>45841</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45841</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>45841</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>45603.53729166667</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>45611.40252314815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>45629.55349537037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>45735.35841435185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>45842</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44460.32847222222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>45846.31435185186</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>45845.65972222222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>45845.66188657407</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45845.68589120371</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45842</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>45842</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>45602.51206018519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>45911.49384259259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>45411.21890046296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45411.22457175926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45784.50868055555</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>45742.36256944444</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>45847</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45474.31899305555</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44649.68643518518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>45913.39210648148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44503.71177083333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>45006.30979166667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44971</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45663</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45691.5816550926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45385</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45913.36832175926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45856.47969907407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45856.48460648148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>45086</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45600.34857638889</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45140</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45664.65659722222</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44333.51732638889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>45918.41196759259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45862.31365740741</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45862.33578703704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45862.48412037037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45861.62144675926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>45862.48081018519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45918.37908564815</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45918.54395833334</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45866.45084490741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45645.4093287037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45666.35835648148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>45868.00584490741</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>45924.64631944444</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>45573.55783564815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44280</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>45158.5971412037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45922.85560185185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>45922.85699074074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>45923.48826388889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>45868.5902199074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>45868.00769675926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45926.33767361111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45925.87936342593</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45606.8416087963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>45925.54702546296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>45925.54865740741</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44333.52131944444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45870.49383101852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>45926.34030092593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>45470.60431712963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>45932.49059027778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>45932.47908564815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45876.61038194445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>44477</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>44812</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>45880.67012731481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45880</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>45225.85532407407</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>45691.60722222222</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45691.60857638889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45880.67349537037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>44565.71667824074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45877.34076388889</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>45702.75126157407</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45880.59420138889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45161.45855324074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45043</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44810.48689814815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45882.47818287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45224.35410879629</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45163.29509259259</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45933</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45934.35324074074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45934.45399305555</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45716.64547453704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45934.52469907407</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45933.6030787037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45299</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45299</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45934.38615740741</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45933.64770833333</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44417.55487268518</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45934.39565972222</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45934.45826388889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45935.78211805555</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45757.63945601852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45937.44197916667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45937.49190972222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45237</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45937.49298611111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45938.56295138889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45938.56658564815</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45775.53862268518</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45937</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45937</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45070</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45938.66553240741</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45159</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>44421.61880787037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45223</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45686.83392361111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45939.40844907407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45140.54517361111</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45008</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45134.34258101852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45939.43545138889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>45939.4374537037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>45883.57228009259</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45180</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>45898.45915509259</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45727.47711805555</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45939.33797453704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45939.36217592593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>44530</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45244</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45540.50850694445</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45033.56310185185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45538.52077546297</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45601.52255787037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45757.67545138889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45757.67739583334</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45090.46358796296</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>44882</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45566.51096064815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>44917.51491898148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45754.34409722222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>45252</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>45947.42858796296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>45481.60545138889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>45950.4659837963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>45947</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>45086</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>45947</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28407,7 +28407,7 @@
         <v>44858</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45951.52045138889</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45952.4318287037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>45093</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28635,7 +28635,7 @@
         <v>45395</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         <v>45951.51880787037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45954.71233796296</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>45239.47715277778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>45757.6719212963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>45316.87039351852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>45751.48168981481</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45954.70637731482</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>45104</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>45104</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45954.54416666667</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45954.56371527778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>45954.71049768518</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45203</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45590.39149305555</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45411.21011574074</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45071</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29609,7 +29609,7 @@
         <v>44959.53804398148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>44267</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45957.65851851852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45960.30618055556</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45960.54706018518</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45960.34425925926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45112.68491898148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45959.54478009259</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45960.35179398148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45663</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>45960.33063657407</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45959.62899305556</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45959.63047453704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>45769.70916666667</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>45961.34212962963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45015.38202546296</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45966.55646990741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>45558.37883101852</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>45704</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>45966.65212962963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>45966.68065972222</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44477</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44697.32734953704</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44944.47947916666</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>44578.76435185185</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45168</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45168</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45161.46265046296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45162</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>45750.98498842592</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>45968.67233796296</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45363.73256944444</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45162</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>44947.52337962963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>45971.67520833333</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>44959.34690972222</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44971.45841435185</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45974.63384259259</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45973.66148148148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45157</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>45974.65717592592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>45974.66358796296</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45338</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44945.61427083334</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45974.64454861111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45579.27511574074</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45134.33009259259</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45973.55982638889</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45180.59076388889</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45086</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45771.46571759259</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45975.34393518518</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45643.51184027778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>45227.69599537037</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45399.69380787037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45979.40725694445</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45187</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45043.33277777778</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45324.58987268519</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45162.63479166666</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45985.39474537037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45163.43252314815</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45162.60915509259</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33267,7 +33267,7 @@
         <v>45698.8477199074</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>45659.61055555556</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>45552.35871527778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>45585.79972222223</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>45621.85106481481</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>45607.38168981481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45162</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45059</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45059</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45988.61628472222</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>45992.64228009259</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>45992.37965277778</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45992.58390046296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45992.58576388889</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44663.5128125</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45377.86966435185</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>45377.88483796296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>45377.89707175926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>45992.37409722222</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45991.7721875</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45992.35840277778</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>45992.38416666666</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>45471.74104166667</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>45994.4335300926</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>45994.44393518518</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>45558.78303240741</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45994.43108796296</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45994.42851851852</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45994.45789351852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45994.47895833333</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45994.42839120371</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44558</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>45191</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>45328.72829861111</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>45996</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>44607.50556712963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         <v>44607.50699074074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35453,7 +35453,7 @@
         <v>45281.81950231481</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35510,7 +35510,7 @@
         <v>44763</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         <v>45412.32587962963</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>45603.57903935185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>45316</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>45225.86696759259</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>45181</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>45575.35196759259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>45344.83107638889</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45173.51109953703</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36033,7 +36033,7 @@
         <v>45166</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>45999.63842592593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36147,7 +36147,7 @@
         <v>46041.69230324074</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36204,7 +36204,7 @@
         <v>45201.37782407407</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         <v>45194.44383101852</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36318,7 +36318,7 @@
         <v>45194.44847222222</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36375,7 +36375,7 @@
         <v>45771</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36432,7 +36432,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36489,7 +36489,7 @@
         <v>45166</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         <v>46001.71747685185</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36603,7 +36603,7 @@
         <v>44642</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>46001.7137962963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>45166</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>44638.75818287037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44638.76068287037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>45236</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45231</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>45691.55537037037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45199.41509259259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>45187</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>45560.54604166667</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>45427.40872685185</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>46001.71782407408</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>45770.88768518518</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>45603.57714120371</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>45098</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>45427.6965625</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>45666.33940972222</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>45676.88591435185</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37706,7 +37706,7 @@
         <v>45166.75233796296</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37763,7 +37763,7 @@
         <v>45710.39645833334</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37820,7 +37820,7 @@
         <v>45140</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>45140</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37934,7 +37934,7 @@
         <v>44333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37991,7 +37991,7 @@
         <v>44845</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38048,7 +38048,7 @@
         <v>44658</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         <v>45626.62587962963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38162,7 +38162,7 @@
         <v>45626.75635416667</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38219,7 +38219,7 @@
         <v>45626.8178125</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38276,7 +38276,7 @@
         <v>46048.6132175926</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>46048.30815972222</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38390,7 +38390,7 @@
         <v>45704</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38447,7 +38447,7 @@
         <v>45233.38435185186</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>45134.30709490741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38561,7 +38561,7 @@
         <v>45681.71317129629</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38618,7 +38618,7 @@
         <v>45700.75613425926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45775.73076388889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45363.45472222222</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>46049.30671296296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45236</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45236</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45197</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39022,7 +39022,7 @@
         <v>45244.42677083334</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39079,7 +39079,7 @@
         <v>45211.57574074074</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39136,7 +39136,7 @@
         <v>45685.46277777778</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39193,7 +39193,7 @@
         <v>44685.53243055556</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>46009.37592592592</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>45701.6150462963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>45698</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>46055.38987268518</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>45691.60403935185</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>45715.63009259259</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>45698.81115740741</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45699.48056712963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39716,7 +39716,7 @@
         <v>45603</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39773,7 +39773,7 @@
         <v>45603</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39830,7 +39830,7 @@
         <v>45994</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39887,7 +39887,7 @@
         <v>44265</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39944,7 +39944,7 @@
         <v>45162.58184027778</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40001,7 +40001,7 @@
         <v>46055</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40058,7 +40058,7 @@
         <v>46057.46802083333</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44824.34364583333</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40172,7 +40172,7 @@
         <v>45688.47086805556</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40229,7 +40229,7 @@
         <v>45693.69725694445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40286,7 +40286,7 @@
         <v>45706.4105324074</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>45691.61997685185</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45691.6365625</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>45726.8350462963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>45282.36902777778</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40571,7 +40571,7 @@
         <v>45189</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40628,7 +40628,7 @@
         <v>45231</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40685,7 +40685,7 @@
         <v>46048.5657175926</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40742,7 +40742,7 @@
         <v>45239.47608796296</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40799,7 +40799,7 @@
         <v>45247.43427083334</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>45461.60770833334</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>45043</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>46062.37981481481</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>45190</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>45227.77196759259</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44847.89084490741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>45895.46729166667</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44593</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44772</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>45257.83363425926</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>45237.66819444444</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>45731.60994212963</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>45357.50591435185</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45038.59851851852</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45271</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41721,7 +41721,7 @@
         <v>45087</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41778,7 +41778,7 @@
         <v>45745.37030092593</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41835,7 +41835,7 @@
         <v>45245.45607638889</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41892,7 +41892,7 @@
         <v>45281.83204861111</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         <v>45281.8468287037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>45281</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>46071.91928240741</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42120,7 +42120,7 @@
         <v>46071.9225</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42177,7 +42177,7 @@
         <v>46029.5588425926</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42234,7 +42234,7 @@
         <v>45086</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42291,7 +42291,7 @@
         <v>46030.63563657407</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42348,7 +42348,7 @@
         <v>45700.75775462963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>46029.42180555555</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>45675.66943287037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>46030.36761574074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>46073.41722222222</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>45257</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44515.82825231482</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>45258.68091435185</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>44488.83150462963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42861,7 +42861,7 @@
         <v>45636.95501157407</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42918,7 +42918,7 @@
         <v>45606.84010416667</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44830.65798611111</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44606.89891203704</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>46077</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44566.64864583333</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>45008</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>45384.48908564815</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>44762</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>44455</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>45568.25478009259</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44678</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44497.61384259259</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>45607.45567129629</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>45546.43177083333</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43721,7 +43721,7 @@
         <v>46080.60608796297</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43778,7 +43778,7 @@
         <v>45395.5187962963</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43835,7 +43835,7 @@
         <v>45139</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>44896</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43949,7 +43949,7 @@
         <v>45071</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44006,7 +44006,7 @@
         <v>45091</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>45009.47876157407</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44120,7 +44120,7 @@
         <v>46079.75648148148</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44177,7 +44177,7 @@
         <v>44768</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44234,7 +44234,7 @@
         <v>45361</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44291,7 +44291,7 @@
         <v>44760.46152777778</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44348,7 +44348,7 @@
         <v>44967</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>44967</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>45625.43532407407</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44519,7 +44519,7 @@
         <v>44514</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44576,7 +44576,7 @@
         <v>45601.76715277778</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45071</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>44945.73416666667</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>44699</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45104</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45320.39425925926</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44918,7 +44918,7 @@
         <v>45565</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44975,7 +44975,7 @@
         <v>44517.39930555555</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45032,7 +45032,7 @@
         <v>45196.6505787037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>44613.67236111111</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45151,7 +45151,7 @@
         <v>45120.42296296296</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45208,7 +45208,7 @@
         <v>45237</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45265,7 +45265,7 @@
         <v>45598.42902777778</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45322,7 +45322,7 @@
         <v>45757.6740162037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         <v>44636</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45436,7 +45436,7 @@
         <v>45533.72237268519</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45493,7 +45493,7 @@
         <v>45258.67806712963</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45550,7 +45550,7 @@
         <v>45246.49246527778</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45607,7 +45607,7 @@
         <v>45163.65444444444</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45664,7 +45664,7 @@
         <v>45597.40795138889</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45272.67701388889</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45089</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>44971.45362268519</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45621.33743055556</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45153.62331018518</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45162</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45002.45552083333</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45484.59119212963</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45376.7833912037</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45415.56604166667</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>44894.45989583333</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45482.61148148148</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45518.02157407408</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45667.34559027778</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45544.72979166666</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45582.61121527778</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45675</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45683.84034722222</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45683.84642361111</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45775.56006944444</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>44715.42887731481</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45006.30878472222</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -46980,7 +46980,7 @@
         <v>45321</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47037,7 +47037,7 @@
         <v>45002.44510416667</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47094,7 +47094,7 @@
         <v>45227</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47151,7 +47151,7 @@
         <v>45227.70106481481</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45124.37938657407</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47265,7 +47265,7 @@
         <v>45140</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47322,7 +47322,7 @@
         <v>45608.4834837963</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47379,7 +47379,7 @@
         <v>44970</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47436,7 +47436,7 @@
         <v>45363.45396990741</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>44636</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47550,7 +47550,7 @@
         <v>45224</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47607,7 +47607,7 @@
         <v>45412.33222222222</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47664,7 +47664,7 @@
         <v>45265.27542824074</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47721,7 +47721,7 @@
         <v>45265.31153935185</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -47778,7 +47778,7 @@
         <v>45320</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -47835,7 +47835,7 @@
         <v>45757.63822916667</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -47892,7 +47892,7 @@
         <v>45209.64098379629</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -47949,7 +47949,7 @@
         <v>44800.34206018518</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48006,7 +48006,7 @@
         <v>45181.56914351852</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48063,7 +48063,7 @@
         <v>45356.47700231482</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48120,7 +48120,7 @@
         <v>44466.41472222222</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48177,7 +48177,7 @@
         <v>45163.65268518519</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48234,7 +48234,7 @@
         <v>44929</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48291,7 +48291,7 @@
         <v>44368</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>45671.35555555556</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>45273</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>45261.48627314815</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>45280.31978009259</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>45735.36002314815</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>45258.26849537037</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>45408.68671296296</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>45070</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>45677.81309027778</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>45645.4187037037</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>45379.38784722222</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>45357</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>45259</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>45578.7541087963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49151,7 +49151,7 @@
         <v>45578.95694444444</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49208,7 +49208,7 @@
         <v>45582.31900462963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49265,7 +49265,7 @@
         <v>45629.43756944445</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49322,7 +49322,7 @@
         <v>45603.6200925926</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45408.24853009259</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45332</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45072</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45604.41407407408</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45594.78761574074</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49674,7 +49674,7 @@
         <v>45271</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49736,7 +49736,7 @@
         <v>45231</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -49793,7 +49793,7 @@
         <v>45231</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -49850,7 +49850,7 @@
         <v>45782.50159722222</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>45782.39655092593</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>45782.31944444445</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50021,7 +50021,7 @@
         <v>45784.26943287037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50078,7 +50078,7 @@
         <v>45784.56585648148</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50135,7 +50135,7 @@
         <v>45412.33524305555</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50192,7 +50192,7 @@
         <v>45785.49209490741</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45785.56844907408</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         <v>45709.27710648148</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50363,7 +50363,7 @@
         <v>45790.46292824074</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50420,7 +50420,7 @@
         <v>45790.4675462963</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50477,7 +50477,7 @@
         <v>45791.5541087963</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50534,7 +50534,7 @@
         <v>45157</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50591,7 +50591,7 @@
         <v>45791.55678240741</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50648,7 +50648,7 @@
         <v>45798.74115740741</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50705,7 +50705,7 @@
         <v>45798.52392361111</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -50762,7 +50762,7 @@
         <v>45797.58068287037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -50819,7 +50819,7 @@
         <v>45797.4844212963</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -50881,7 +50881,7 @@
         <v>45797.49297453704</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -50943,7 +50943,7 @@
         <v>45799.52417824074</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
